--- a/examples/macros/artifact/script/FindNexialCommands.xlsx
+++ b/examples/macros/artifact/script/FindNexialCommands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ml093043/projects/nexial/tutorials/examples/macros/artifact/script/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C8530ED-B719-2245-A64F-7FD357E4514D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB2B34CF-0502-F44A-A93F-D3FBCBCF39D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="10960" windowWidth="51200" windowHeight="21040" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="10960" windowWidth="51200" windowHeight="21040" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="#system" sheetId="4" state="hidden" r:id="rId1"/>
@@ -4103,9 +4103,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O1001"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B13" sqref="B13:F18"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -15742,9 +15742,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6705F6AB-49D3-2046-AADA-32ECAA769FF5}">
   <dimension ref="A1:O997"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="133" workbookViewId="0">
+    <sheetView zoomScale="109" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E10" sqref="E10"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/examples/macros/artifact/script/FindNexialCommands.xlsx
+++ b/examples/macros/artifact/script/FindNexialCommands.xlsx
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
     <definedName name="step">'#system'!$W$2:$W$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$125</definedName>
+    <definedName name="web">'#system'!$X$2:$X$127</definedName>
     <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
     <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2712" uniqueCount="551">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3752" uniqueCount="553">
   <si>
     <t>description</t>
   </si>
@@ -1778,13 +1778,19 @@
   <si>
     <t>saveTextByLocator(var,locator)</t>
   </si>
+  <si>
+    <t>scrollElement(locator,xOffset,yOffset)</t>
+  </si>
+  <si>
+    <t>scrollPage(xOffset,yOffset)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="77" x14ac:knownFonts="1">
+  <fonts count="109" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2279,8 +2285,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="112">
+  <fills count="172">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2911,8 +3119,348 @@
         <bgColor rgb="C6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="115">
+  <borders count="171">
     <border>
       <left/>
       <right/>
@@ -4078,6 +4626,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -4085,7 +5197,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="104">
+  <cellXfs count="136">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -4370,52 +5482,148 @@
     <xf applyFont="true" borderId="0" fillId="0" fontId="60" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="61" fillId="87" borderId="94" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="94" fillId="87" fontId="61" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="62" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="62" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="63" fillId="90" borderId="98" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="98" fillId="90" fontId="63" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="93" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="93" fontId="64" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="65" fillId="96" borderId="102" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="102" fillId="96" fontId="65" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="66" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="66" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="67" fillId="99" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="99" fontId="67" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="68" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="68" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="69" fillId="102" borderId="106" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="106" fillId="102" fontId="69" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="70" fillId="105" borderId="110" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="110" fillId="105" fontId="70" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="71" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="71" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="72" fillId="108" borderId="114" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="114" fillId="108" fontId="72" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="73" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="73" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="74" fillId="111" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="111" fontId="74" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="75" fillId="96" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="96" fontId="75" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="76" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="76" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="122" fillId="114" fontId="77" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="78" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="126" fillId="117" fontId="79" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="120" fontId="80" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="130" fillId="123" fontId="81" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="82" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="126" fontId="83" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="84" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="134" fillId="129" fontId="85" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="138" fillId="132" fontId="86" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="87" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="142" fillId="135" fontId="88" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="89" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="138" fontId="90" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="123" fontId="91" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="141" fontId="92" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="93" fillId="144" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="95" fillId="147" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="96" fillId="150" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="97" fillId="153" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="99" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="159" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="162" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="103" fillId="165" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="104" fillId="165" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="105" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="106" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="107" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4770,7 +5978,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD125"/>
+  <dimension ref="A1:AD127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6462,126 +7670,136 @@
     </row>
     <row r="101">
       <c r="X101" t="s">
-        <v>148</v>
+        <v>551</v>
       </c>
     </row>
     <row r="102">
       <c r="X102" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="103">
       <c r="X103" t="s">
-        <v>149</v>
+        <v>552</v>
       </c>
     </row>
     <row r="104">
       <c r="X104" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
     </row>
     <row r="105">
       <c r="X105" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="106">
       <c r="X106" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="107">
       <c r="X107" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="108">
       <c r="X108" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109">
       <c r="X109" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="110">
       <c r="X110" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111">
       <c r="X111" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
       <c r="X112" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113">
       <c r="X113" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="114">
       <c r="X114" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="115">
       <c r="X115" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="116">
       <c r="X116" t="s">
-        <v>443</v>
+        <v>160</v>
       </c>
     </row>
     <row r="117">
       <c r="X117" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="118">
       <c r="X118" t="s">
-        <v>163</v>
+        <v>443</v>
       </c>
     </row>
     <row r="119">
       <c r="X119" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120">
       <c r="X120" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="121">
       <c r="X121" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="122">
       <c r="X122" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="123">
       <c r="X123" t="s">
-        <v>167</v>
+        <v>46</v>
       </c>
     </row>
     <row r="124">
       <c r="X124" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125">
       <c r="X125" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="X126" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="X127" t="s">
         <v>169</v>
       </c>
     </row>

--- a/examples/macros/artifact/script/FindNexialCommands.xlsx
+++ b/examples/macros/artifact/script/FindNexialCommands.xlsx
@@ -31,27 +31,28 @@
     <definedName name="io">'#system'!$K$2:$K$28</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
-    <definedName name="macro">'#system'!$N$2:$N$4</definedName>
-    <definedName name="mail">'#system'!$O$2:$O$2</definedName>
+    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
+    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$P$2:$P$16</definedName>
-    <definedName name="pdf">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="rdbms">'#system'!$R$2:$R$7</definedName>
-    <definedName name="redis">'#system'!$S$2:$S$10</definedName>
-    <definedName name="sms">'#system'!$T$2:$T$2</definedName>
-    <definedName name="sound">'#system'!$U$2:$U$5</definedName>
-    <definedName name="ssh">'#system'!$V$2:$V$9</definedName>
-    <definedName name="step">'#system'!$W$2:$W$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$29</definedName>
-    <definedName name="web">'#system'!$X$2:$X$127</definedName>
-    <definedName name="webalert">'#system'!$Y$2:$Y$8</definedName>
-    <definedName name="webcookie">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="ws">'#system'!$AA$2:$AA$17</definedName>
-    <definedName name="ws.async">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="xml">'#system'!$AC$2:$AC$21</definedName>
+    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
+    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
+    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
+    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
+    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
+    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
+    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
+    <definedName name="step">'#system'!$X$2:$X$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3752" uniqueCount="553">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4808" uniqueCount="560">
   <si>
     <t>description</t>
   </si>
@@ -1784,13 +1785,34 @@
   <si>
     <t>scrollPage(xOffset,yOffset)</t>
   </si>
+  <si>
+    <t>localdb</t>
+  </si>
+  <si>
+    <t>cloneTable(var,source,target)</t>
+  </si>
+  <si>
+    <t>dropTables(var,tables)</t>
+  </si>
+  <si>
+    <t>exportCSV(sql,output)</t>
+  </si>
+  <si>
+    <t>importRecords(var,sourceDb,sql,table)</t>
+  </si>
+  <si>
+    <t>purge(var)</t>
+  </si>
+  <si>
+    <t>runSQLs(var,sqls)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="109" x14ac:knownFonts="1">
+  <fonts count="141" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2487,8 +2509,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="172">
+  <fills count="232">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3459,8 +3683,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="171">
+  <borders count="227">
     <border>
       <left/>
       <right/>
@@ -5190,6 +5754,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -5197,7 +6325,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="168">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -5578,52 +6706,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="141" fontId="92" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="93" fillId="144" borderId="150" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="150" fillId="144" fontId="93" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="94" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="94" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="95" fillId="147" borderId="154" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="154" fillId="147" fontId="95" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="150" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="150" fontId="96" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="97" fillId="153" borderId="158" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="158" fillId="153" fontId="97" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="98" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="99" fillId="156" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="156" fontId="99" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="100" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="159" borderId="162" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="162" fillId="159" fontId="101" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="162" borderId="166" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="166" fillId="162" fontId="102" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="165" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="165" fontId="103" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="165" borderId="170" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="170" fillId="165" fontId="104" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="105" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="105" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="106" fillId="168" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="168" fontId="106" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="107" fillId="153" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="153" fontId="107" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="108" fillId="171" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="171" fontId="108" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="178" fillId="174" fontId="109" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="110" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="182" fillId="177" fontId="111" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="180" fontId="112" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="186" fillId="183" fontId="113" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="114" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="186" fontId="115" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="116" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="190" fillId="189" fontId="117" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="194" fillId="192" fontId="118" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="195" fontId="119" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="198" fillId="195" fontId="120" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="121" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="198" fontId="122" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="183" fontId="123" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="201" fontId="124" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="125" fillId="204" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="127" fillId="207" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="128" fillId="210" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="129" fillId="213" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="131" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="133" fillId="219" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="134" fillId="222" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="135" fillId="225" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="136" fillId="225" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="137" fillId="213" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="138" fillId="228" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="139" fillId="213" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="140" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -5978,7 +7202,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD127"/>
+  <dimension ref="A1:AE127"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -6030,51 +7254,54 @@
         <v>24</v>
       </c>
       <c r="N1" t="s">
+        <v>553</v>
+      </c>
+      <c r="O1" t="s">
         <v>475</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>195</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>51</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>238</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>52</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>395</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>411</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>412</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>356</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>396</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>53</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>54</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>55</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>56</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>413</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -6119,51 +7346,54 @@
         <v>434</v>
       </c>
       <c r="N2" t="s">
+        <v>554</v>
+      </c>
+      <c r="O2" t="s">
         <v>478</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>416</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>429</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>252</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>216</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>397</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>418</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>419</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>380</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>406</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>96</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>170</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>175</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>182</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>431</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>536</v>
       </c>
     </row>
@@ -6208,45 +7438,48 @@
         <v>85</v>
       </c>
       <c r="N3" t="s">
+        <v>555</v>
+      </c>
+      <c r="O3" t="s">
         <v>479</v>
       </c>
-      <c r="P3" t="s">
+      <c r="Q3" t="s">
         <v>430</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>239</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>217</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>398</v>
       </c>
-      <c r="U3" t="s">
+      <c r="V3" t="s">
         <v>420</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>381</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>407</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>97</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>171</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>176</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>363</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>183</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -6288,45 +7521,48 @@
         <v>25</v>
       </c>
       <c r="N4" t="s">
+        <v>556</v>
+      </c>
+      <c r="O4" t="s">
         <v>480</v>
       </c>
-      <c r="P4" t="s">
+      <c r="Q4" t="s">
         <v>26</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>240</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>218</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>399</v>
       </c>
-      <c r="U4" t="s">
+      <c r="V4" t="s">
         <v>421</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>357</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>408</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>353</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>172</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>177</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>183</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>423</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -6361,40 +7597,43 @@
       <c r="M5" t="s">
         <v>86</v>
       </c>
-      <c r="P5" t="s">
+      <c r="N5" t="s">
+        <v>557</v>
+      </c>
+      <c r="Q5" t="s">
         <v>29</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>241</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>219</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>400</v>
       </c>
-      <c r="U5" t="s">
+      <c r="V5" t="s">
         <v>422</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>358</v>
       </c>
-      <c r="X5" t="s">
+      <c r="Y5" t="s">
         <v>354</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>173</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>178</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>184</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>424</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -6426,37 +7665,40 @@
       <c r="M6" t="s">
         <v>28</v>
       </c>
-      <c r="P6" t="s">
+      <c r="N6" t="s">
+        <v>558</v>
+      </c>
+      <c r="Q6" t="s">
         <v>30</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>242</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>390</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>401</v>
       </c>
-      <c r="V6" t="s">
+      <c r="W6" t="s">
         <v>360</v>
       </c>
-      <c r="X6" t="s">
+      <c r="Y6" t="s">
         <v>98</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>444</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>179</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>185</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>425</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6482,37 +7724,40 @@
       <c r="M7" t="s">
         <v>314</v>
       </c>
-      <c r="P7" t="s">
+      <c r="N7" t="s">
+        <v>559</v>
+      </c>
+      <c r="Q7" t="s">
         <v>32</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>243</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>417</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>402</v>
       </c>
-      <c r="V7" t="s">
+      <c r="W7" t="s">
         <v>359</v>
       </c>
-      <c r="X7" t="s">
+      <c r="Y7" t="s">
         <v>99</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>445</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>180</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>186</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>426</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>231</v>
       </c>
     </row>
@@ -6538,34 +7783,34 @@
       <c r="M8" t="s">
         <v>33</v>
       </c>
-      <c r="P8" t="s">
+      <c r="Q8" t="s">
         <v>90</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>244</v>
       </c>
-      <c r="S8" t="s">
+      <c r="T8" t="s">
         <v>403</v>
       </c>
-      <c r="V8" t="s">
+      <c r="W8" t="s">
         <v>361</v>
       </c>
-      <c r="X8" t="s">
+      <c r="Y8" t="s">
         <v>100</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>174</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>181</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>187</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>427</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>232</v>
       </c>
     </row>
@@ -6591,25 +7836,25 @@
       <c r="M9" t="s">
         <v>34</v>
       </c>
-      <c r="P9" t="s">
+      <c r="Q9" t="s">
         <v>91</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>245</v>
       </c>
-      <c r="S9" t="s">
+      <c r="T9" t="s">
         <v>404</v>
       </c>
-      <c r="V9" t="s">
+      <c r="W9" t="s">
         <v>362</v>
       </c>
-      <c r="X9" t="s">
+      <c r="Y9" t="s">
         <v>208</v>
       </c>
-      <c r="AA9" t="s">
+      <c r="AB9" t="s">
         <v>188</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AD9" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6632,22 +7877,22 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
-      <c r="P10" t="s">
+      <c r="Q10" t="s">
         <v>436</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>246</v>
       </c>
-      <c r="S10" t="s">
+      <c r="T10" t="s">
         <v>405</v>
       </c>
-      <c r="X10" t="s">
+      <c r="Y10" t="s">
         <v>256</v>
       </c>
-      <c r="AA10" t="s">
+      <c r="AB10" t="s">
         <v>189</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AD10" t="s">
         <v>473</v>
       </c>
     </row>
@@ -6670,19 +7915,19 @@
       <c r="M11" t="s">
         <v>470</v>
       </c>
-      <c r="P11" t="s">
+      <c r="Q11" t="s">
         <v>92</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>247</v>
       </c>
-      <c r="X11" t="s">
+      <c r="Y11" t="s">
         <v>257</v>
       </c>
-      <c r="AA11" t="s">
+      <c r="AB11" t="s">
         <v>258</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AD11" t="s">
         <v>537</v>
       </c>
     </row>
@@ -6705,19 +7950,19 @@
       <c r="M12" t="s">
         <v>435</v>
       </c>
-      <c r="P12" t="s">
+      <c r="Q12" t="s">
         <v>40</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>248</v>
       </c>
-      <c r="X12" t="s">
+      <c r="Y12" t="s">
         <v>101</v>
       </c>
-      <c r="AA12" t="s">
+      <c r="AB12" t="s">
         <v>190</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AD12" t="s">
         <v>538</v>
       </c>
     </row>
@@ -6740,25 +7985,25 @@
       <c r="M13" t="s">
         <v>471</v>
       </c>
-      <c r="P13" t="s">
+      <c r="Q13" t="s">
         <v>93</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>253</v>
       </c>
-      <c r="X13" t="s">
+      <c r="Y13" t="s">
         <v>325</v>
       </c>
-      <c r="AA13" t="s">
+      <c r="AB13" t="s">
         <v>191</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AD13" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>475</v>
+        <v>553</v>
       </c>
       <c r="E14" t="s">
         <v>36</v>
@@ -6775,25 +8020,25 @@
       <c r="M14" t="s">
         <v>38</v>
       </c>
-      <c r="P14" t="s">
+      <c r="Q14" t="s">
         <v>94</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>249</v>
       </c>
-      <c r="X14" t="s">
+      <c r="Y14" t="s">
         <v>102</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AB14" t="s">
         <v>192</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AD14" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>195</v>
+        <v>475</v>
       </c>
       <c r="E15" t="s">
         <v>58</v>
@@ -6807,25 +8052,25 @@
       <c r="M15" t="s">
         <v>39</v>
       </c>
-      <c r="P15" t="s">
+      <c r="Q15" t="s">
         <v>532</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>250</v>
       </c>
-      <c r="X15" t="s">
+      <c r="Y15" t="s">
         <v>103</v>
       </c>
-      <c r="AA15" t="s">
+      <c r="AB15" t="s">
         <v>193</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AD15" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>51</v>
+        <v>195</v>
       </c>
       <c r="E16" t="s">
         <v>384</v>
@@ -6839,25 +8084,25 @@
       <c r="M16" t="s">
         <v>42</v>
       </c>
-      <c r="P16" t="s">
+      <c r="Q16" t="s">
         <v>533</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>251</v>
       </c>
-      <c r="X16" t="s">
+      <c r="Y16" t="s">
         <v>74</v>
       </c>
-      <c r="AA16" t="s">
+      <c r="AB16" t="s">
         <v>194</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AD16" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>238</v>
+        <v>51</v>
       </c>
       <c r="E17" t="s">
         <v>385</v>
@@ -6868,19 +8113,19 @@
       <c r="K17" t="s">
         <v>81</v>
       </c>
-      <c r="X17" t="s">
+      <c r="Y17" t="s">
         <v>534</v>
       </c>
-      <c r="AA17" t="s">
+      <c r="AB17" t="s">
         <v>466</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AD17" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>238</v>
       </c>
       <c r="E18" t="s">
         <v>414</v>
@@ -6891,16 +8136,16 @@
       <c r="K18" t="s">
         <v>462</v>
       </c>
-      <c r="X18" t="s">
+      <c r="Y18" t="s">
         <v>104</v>
       </c>
-      <c r="AC18" t="s">
+      <c r="AD18" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>395</v>
+        <v>52</v>
       </c>
       <c r="E19" t="s">
         <v>59</v>
@@ -6911,16 +8156,16 @@
       <c r="K19" t="s">
         <v>82</v>
       </c>
-      <c r="X19" t="s">
+      <c r="Y19" t="s">
         <v>105</v>
       </c>
-      <c r="AC19" t="s">
+      <c r="AD19" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="E20" t="s">
         <v>60</v>
@@ -6931,16 +8176,16 @@
       <c r="K20" t="s">
         <v>83</v>
       </c>
-      <c r="X20" t="s">
+      <c r="Y20" t="s">
         <v>106</v>
       </c>
-      <c r="AC20" t="s">
+      <c r="AD20" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="E21" t="s">
         <v>255</v>
@@ -6951,16 +8196,16 @@
       <c r="K21" t="s">
         <v>379</v>
       </c>
-      <c r="X21" t="s">
+      <c r="Y21" t="s">
         <v>107</v>
       </c>
-      <c r="AC21" t="s">
+      <c r="AD21" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>356</v>
+        <v>412</v>
       </c>
       <c r="E22" t="s">
         <v>61</v>
@@ -6971,13 +8216,13 @@
       <c r="K22" t="s">
         <v>469</v>
       </c>
-      <c r="X22" t="s">
+      <c r="Y22" t="s">
         <v>526</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="E23" t="s">
         <v>320</v>
@@ -6988,13 +8233,13 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="X23" t="s">
+      <c r="Y23" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>53</v>
+        <v>396</v>
       </c>
       <c r="E24" t="s">
         <v>62</v>
@@ -7005,13 +8250,13 @@
       <c r="K24" t="s">
         <v>391</v>
       </c>
-      <c r="X24" t="s">
+      <c r="Y24" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
         <v>448</v>
@@ -7022,13 +8267,13 @@
       <c r="K25" t="s">
         <v>84</v>
       </c>
-      <c r="X25" t="s">
+      <c r="Y25" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
         <v>224</v>
@@ -7039,13 +8284,13 @@
       <c r="K26" t="s">
         <v>433</v>
       </c>
-      <c r="X26" t="s">
+      <c r="Y26" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
         <v>225</v>
@@ -7056,13 +8301,13 @@
       <c r="K27" t="s">
         <v>44</v>
       </c>
-      <c r="X27" t="s">
+      <c r="Y27" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>413</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>467</v>
@@ -7073,13 +8318,13 @@
       <c r="K28" t="s">
         <v>45</v>
       </c>
-      <c r="X28" t="s">
+      <c r="Y28" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
         <v>468</v>
@@ -7087,18 +8332,21 @@
       <c r="G29" t="s">
         <v>283</v>
       </c>
-      <c r="X29" t="s">
+      <c r="Y29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="s">
+        <v>226</v>
+      </c>
       <c r="E30" t="s">
         <v>415</v>
       </c>
       <c r="G30" t="s">
         <v>215</v>
       </c>
-      <c r="X30" t="s">
+      <c r="Y30" t="s">
         <v>115</v>
       </c>
     </row>
@@ -7109,7 +8357,7 @@
       <c r="G31" t="s">
         <v>274</v>
       </c>
-      <c r="X31" t="s">
+      <c r="Y31" t="s">
         <v>116</v>
       </c>
     </row>
@@ -7120,7 +8368,7 @@
       <c r="G32" t="s">
         <v>284</v>
       </c>
-      <c r="X32" t="s">
+      <c r="Y32" t="s">
         <v>117</v>
       </c>
     </row>
@@ -7131,7 +8379,7 @@
       <c r="G33" t="s">
         <v>549</v>
       </c>
-      <c r="X33" t="s">
+      <c r="Y33" t="s">
         <v>118</v>
       </c>
     </row>
@@ -7142,7 +8390,7 @@
       <c r="G34" t="s">
         <v>259</v>
       </c>
-      <c r="X34" t="s">
+      <c r="Y34" t="s">
         <v>119</v>
       </c>
     </row>
@@ -7153,7 +8401,7 @@
       <c r="G35" t="s">
         <v>329</v>
       </c>
-      <c r="X35" t="s">
+      <c r="Y35" t="s">
         <v>209</v>
       </c>
     </row>
@@ -7164,7 +8412,7 @@
       <c r="G36" t="s">
         <v>306</v>
       </c>
-      <c r="X36" t="s">
+      <c r="Y36" t="s">
         <v>120</v>
       </c>
     </row>
@@ -7175,7 +8423,7 @@
       <c r="G37" t="s">
         <v>260</v>
       </c>
-      <c r="X37" t="s">
+      <c r="Y37" t="s">
         <v>337</v>
       </c>
     </row>
@@ -7186,7 +8434,7 @@
       <c r="G38" t="s">
         <v>307</v>
       </c>
-      <c r="X38" t="s">
+      <c r="Y38" t="s">
         <v>437</v>
       </c>
     </row>
@@ -7194,7 +8442,7 @@
       <c r="G39" t="s">
         <v>266</v>
       </c>
-      <c r="X39" t="s">
+      <c r="Y39" t="s">
         <v>392</v>
       </c>
     </row>
@@ -7202,7 +8450,7 @@
       <c r="G40" t="s">
         <v>77</v>
       </c>
-      <c r="X40" t="s">
+      <c r="Y40" t="s">
         <v>121</v>
       </c>
     </row>
@@ -7210,7 +8458,7 @@
       <c r="G41" t="s">
         <v>211</v>
       </c>
-      <c r="X41" t="s">
+      <c r="Y41" t="s">
         <v>122</v>
       </c>
     </row>
@@ -7218,7 +8466,7 @@
       <c r="G42" t="s">
         <v>288</v>
       </c>
-      <c r="X42" t="s">
+      <c r="Y42" t="s">
         <v>123</v>
       </c>
     </row>
@@ -7226,7 +8474,7 @@
       <c r="G43" t="s">
         <v>299</v>
       </c>
-      <c r="X43" t="s">
+      <c r="Y43" t="s">
         <v>124</v>
       </c>
     </row>
@@ -7234,7 +8482,7 @@
       <c r="G44" t="s">
         <v>300</v>
       </c>
-      <c r="X44" t="s">
+      <c r="Y44" t="s">
         <v>125</v>
       </c>
     </row>
@@ -7242,7 +8490,7 @@
       <c r="G45" t="s">
         <v>342</v>
       </c>
-      <c r="X45" t="s">
+      <c r="Y45" t="s">
         <v>126</v>
       </c>
     </row>
@@ -7250,7 +8498,7 @@
       <c r="G46" t="s">
         <v>341</v>
       </c>
-      <c r="X46" t="s">
+      <c r="Y46" t="s">
         <v>438</v>
       </c>
     </row>
@@ -7258,7 +8506,7 @@
       <c r="G47" t="s">
         <v>210</v>
       </c>
-      <c r="X47" t="s">
+      <c r="Y47" t="s">
         <v>212</v>
       </c>
     </row>
@@ -7266,7 +8514,7 @@
       <c r="G48" t="s">
         <v>319</v>
       </c>
-      <c r="X48" t="s">
+      <c r="Y48" t="s">
         <v>76</v>
       </c>
     </row>
@@ -7274,7 +8522,7 @@
       <c r="G49" t="s">
         <v>338</v>
       </c>
-      <c r="X49" t="s">
+      <c r="Y49" t="s">
         <v>127</v>
       </c>
     </row>
@@ -7282,7 +8530,7 @@
       <c r="G50" t="s">
         <v>367</v>
       </c>
-      <c r="X50" t="s">
+      <c r="Y50" t="s">
         <v>128</v>
       </c>
     </row>
@@ -7290,7 +8538,7 @@
       <c r="G51" t="s">
         <v>301</v>
       </c>
-      <c r="X51" t="s">
+      <c r="Y51" t="s">
         <v>129</v>
       </c>
     </row>
@@ -7298,7 +8546,7 @@
       <c r="G52" t="s">
         <v>355</v>
       </c>
-      <c r="X52" t="s">
+      <c r="Y52" t="s">
         <v>481</v>
       </c>
     </row>
@@ -7306,7 +8554,7 @@
       <c r="G53" t="s">
         <v>330</v>
       </c>
-      <c r="X53" t="s">
+      <c r="Y53" t="s">
         <v>463</v>
       </c>
     </row>
@@ -7314,7 +8562,7 @@
       <c r="G54" t="s">
         <v>267</v>
       </c>
-      <c r="X54" t="s">
+      <c r="Y54" t="s">
         <v>130</v>
       </c>
     </row>
@@ -7322,7 +8570,7 @@
       <c r="G55" t="s">
         <v>291</v>
       </c>
-      <c r="X55" t="s">
+      <c r="Y55" t="s">
         <v>345</v>
       </c>
     </row>
@@ -7330,7 +8578,7 @@
       <c r="G56" t="s">
         <v>292</v>
       </c>
-      <c r="X56" t="s">
+      <c r="Y56" t="s">
         <v>464</v>
       </c>
     </row>
@@ -7338,7 +8586,7 @@
       <c r="G57" t="s">
         <v>293</v>
       </c>
-      <c r="X57" t="s">
+      <c r="Y57" t="s">
         <v>131</v>
       </c>
     </row>
@@ -7346,7 +8594,7 @@
       <c r="G58" t="s">
         <v>302</v>
       </c>
-      <c r="X58" t="s">
+      <c r="Y58" t="s">
         <v>132</v>
       </c>
     </row>
@@ -7354,7 +8602,7 @@
       <c r="G59" t="s">
         <v>311</v>
       </c>
-      <c r="X59" t="s">
+      <c r="Y59" t="s">
         <v>133</v>
       </c>
     </row>
@@ -7362,7 +8610,7 @@
       <c r="G60" t="s">
         <v>336</v>
       </c>
-      <c r="X60" t="s">
+      <c r="Y60" t="s">
         <v>134</v>
       </c>
     </row>
@@ -7370,7 +8618,7 @@
       <c r="G61" t="s">
         <v>308</v>
       </c>
-      <c r="X61" t="s">
+      <c r="Y61" t="s">
         <v>135</v>
       </c>
     </row>
@@ -7378,7 +8626,7 @@
       <c r="G62" t="s">
         <v>309</v>
       </c>
-      <c r="X62" t="s">
+      <c r="Y62" t="s">
         <v>136</v>
       </c>
     </row>
@@ -7386,7 +8634,7 @@
       <c r="G63" t="s">
         <v>368</v>
       </c>
-      <c r="X63" t="s">
+      <c r="Y63" t="s">
         <v>137</v>
       </c>
     </row>
@@ -7394,7 +8642,7 @@
       <c r="G64" t="s">
         <v>369</v>
       </c>
-      <c r="X64" t="s">
+      <c r="Y64" t="s">
         <v>439</v>
       </c>
     </row>
@@ -7402,7 +8650,7 @@
       <c r="G65" t="s">
         <v>344</v>
       </c>
-      <c r="X65" t="s">
+      <c r="Y65" t="s">
         <v>472</v>
       </c>
     </row>
@@ -7410,7 +8658,7 @@
       <c r="G66" t="s">
         <v>312</v>
       </c>
-      <c r="X66" t="s">
+      <c r="Y66" t="s">
         <v>213</v>
       </c>
     </row>
@@ -7418,7 +8666,7 @@
       <c r="G67" t="s">
         <v>268</v>
       </c>
-      <c r="X67" t="s">
+      <c r="Y67" t="s">
         <v>388</v>
       </c>
     </row>
@@ -7426,7 +8674,7 @@
       <c r="G68" t="s">
         <v>352</v>
       </c>
-      <c r="X68" t="s">
+      <c r="Y68" t="s">
         <v>440</v>
       </c>
     </row>
@@ -7434,7 +8682,7 @@
       <c r="G69" t="s">
         <v>313</v>
       </c>
-      <c r="X69" t="s">
+      <c r="Y69" t="s">
         <v>138</v>
       </c>
     </row>
@@ -7442,7 +8690,7 @@
       <c r="G70" t="s">
         <v>409</v>
       </c>
-      <c r="X70" t="s">
+      <c r="Y70" t="s">
         <v>139</v>
       </c>
     </row>
@@ -7450,7 +8698,7 @@
       <c r="G71" t="s">
         <v>303</v>
       </c>
-      <c r="X71" t="s">
+      <c r="Y71" t="s">
         <v>140</v>
       </c>
     </row>
@@ -7458,7 +8706,7 @@
       <c r="G72" t="s">
         <v>410</v>
       </c>
-      <c r="X72" t="s">
+      <c r="Y72" t="s">
         <v>141</v>
       </c>
     </row>
@@ -7466,7 +8714,7 @@
       <c r="G73" t="s">
         <v>261</v>
       </c>
-      <c r="X73" t="s">
+      <c r="Y73" t="s">
         <v>196</v>
       </c>
     </row>
@@ -7474,7 +8722,7 @@
       <c r="G74" t="s">
         <v>550</v>
       </c>
-      <c r="X74" t="s">
+      <c r="Y74" t="s">
         <v>197</v>
       </c>
     </row>
@@ -7482,7 +8730,7 @@
       <c r="G75" t="s">
         <v>343</v>
       </c>
-      <c r="X75" t="s">
+      <c r="Y75" t="s">
         <v>452</v>
       </c>
     </row>
@@ -7490,7 +8738,7 @@
       <c r="G76" t="s">
         <v>279</v>
       </c>
-      <c r="X76" t="s">
+      <c r="Y76" t="s">
         <v>465</v>
       </c>
     </row>
@@ -7498,7 +8746,7 @@
       <c r="G77" t="s">
         <v>285</v>
       </c>
-      <c r="X77" t="s">
+      <c r="Y77" t="s">
         <v>142</v>
       </c>
     </row>
@@ -7506,7 +8754,7 @@
       <c r="G78" t="s">
         <v>290</v>
       </c>
-      <c r="X78" t="s">
+      <c r="Y78" t="s">
         <v>143</v>
       </c>
     </row>
@@ -7514,7 +8762,7 @@
       <c r="G79" t="s">
         <v>428</v>
       </c>
-      <c r="X79" t="s">
+      <c r="Y79" t="s">
         <v>144</v>
       </c>
     </row>
@@ -7522,7 +8770,7 @@
       <c r="G80" t="s">
         <v>331</v>
       </c>
-      <c r="X80" t="s">
+      <c r="Y80" t="s">
         <v>535</v>
       </c>
     </row>
@@ -7530,7 +8778,7 @@
       <c r="G81" t="s">
         <v>269</v>
       </c>
-      <c r="X81" t="s">
+      <c r="Y81" t="s">
         <v>145</v>
       </c>
     </row>
@@ -7538,7 +8786,7 @@
       <c r="G82" t="s">
         <v>280</v>
       </c>
-      <c r="X82" t="s">
+      <c r="Y82" t="s">
         <v>146</v>
       </c>
     </row>
@@ -7546,7 +8794,7 @@
       <c r="G83" t="s">
         <v>286</v>
       </c>
-      <c r="X83" t="s">
+      <c r="Y83" t="s">
         <v>198</v>
       </c>
     </row>
@@ -7554,7 +8802,7 @@
       <c r="G84" t="s">
         <v>275</v>
       </c>
-      <c r="X84" t="s">
+      <c r="Y84" t="s">
         <v>504</v>
       </c>
     </row>
@@ -7562,7 +8810,7 @@
       <c r="G85" t="s">
         <v>270</v>
       </c>
-      <c r="X85" t="s">
+      <c r="Y85" t="s">
         <v>199</v>
       </c>
     </row>
@@ -7570,7 +8818,7 @@
       <c r="G86" t="s">
         <v>287</v>
       </c>
-      <c r="X86" t="s">
+      <c r="Y86" t="s">
         <v>453</v>
       </c>
     </row>
@@ -7578,7 +8826,7 @@
       <c r="G87" t="s">
         <v>271</v>
       </c>
-      <c r="X87" t="s">
+      <c r="Y87" t="s">
         <v>200</v>
       </c>
     </row>
@@ -7586,7 +8834,7 @@
       <c r="G88" t="s">
         <v>272</v>
       </c>
-      <c r="X88" t="s">
+      <c r="Y88" t="s">
         <v>201</v>
       </c>
     </row>
@@ -7594,7 +8842,7 @@
       <c r="G89" t="s">
         <v>304</v>
       </c>
-      <c r="X89" t="s">
+      <c r="Y89" t="s">
         <v>214</v>
       </c>
     </row>
@@ -7602,7 +8850,7 @@
       <c r="G90" t="s">
         <v>310</v>
       </c>
-      <c r="X90" t="s">
+      <c r="Y90" t="s">
         <v>147</v>
       </c>
     </row>
@@ -7610,7 +8858,7 @@
       <c r="G91" t="s">
         <v>294</v>
       </c>
-      <c r="X91" t="s">
+      <c r="Y91" t="s">
         <v>202</v>
       </c>
     </row>
@@ -7618,7 +8866,7 @@
       <c r="G92" t="s">
         <v>339</v>
       </c>
-      <c r="X92" t="s">
+      <c r="Y92" t="s">
         <v>441</v>
       </c>
     </row>
@@ -7626,7 +8874,7 @@
       <c r="G93" t="s">
         <v>276</v>
       </c>
-      <c r="X93" t="s">
+      <c r="Y93" t="s">
         <v>442</v>
       </c>
     </row>
@@ -7634,172 +8882,172 @@
       <c r="G94" t="s">
         <v>277</v>
       </c>
-      <c r="X94" t="s">
+      <c r="Y94" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="95">
-      <c r="X95" t="s">
+      <c r="Y95" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="96">
-      <c r="X96" t="s">
+      <c r="Y96" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="97">
-      <c r="X97" t="s">
+      <c r="Y97" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="98">
-      <c r="X98" t="s">
+      <c r="Y98" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="99">
-      <c r="X99" t="s">
+      <c r="Y99" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="100">
-      <c r="X100" t="s">
+      <c r="Y100" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="101">
-      <c r="X101" t="s">
+      <c r="Y101" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="102">
-      <c r="X102" t="s">
+      <c r="Y102" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="103">
-      <c r="X103" t="s">
+      <c r="Y103" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="104">
-      <c r="X104" t="s">
+      <c r="Y104" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="105">
-      <c r="X105" t="s">
+      <c r="Y105" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="106">
-      <c r="X106" t="s">
+      <c r="Y106" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="107">
-      <c r="X107" t="s">
+      <c r="Y107" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="108">
-      <c r="X108" t="s">
+      <c r="Y108" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="109">
-      <c r="X109" t="s">
+      <c r="Y109" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="110">
-      <c r="X110" t="s">
+      <c r="Y110" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="111">
-      <c r="X111" t="s">
+      <c r="Y111" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="112">
-      <c r="X112" t="s">
+      <c r="Y112" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="113">
-      <c r="X113" t="s">
+      <c r="Y113" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="114">
-      <c r="X114" t="s">
+      <c r="Y114" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="115">
-      <c r="X115" t="s">
+      <c r="Y115" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="116">
-      <c r="X116" t="s">
+      <c r="Y116" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="117">
-      <c r="X117" t="s">
+      <c r="Y117" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="118">
-      <c r="X118" t="s">
+      <c r="Y118" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="119">
-      <c r="X119" t="s">
+      <c r="Y119" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="120">
-      <c r="X120" t="s">
+      <c r="Y120" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="121">
-      <c r="X121" t="s">
+      <c r="Y121" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="122">
-      <c r="X122" t="s">
+      <c r="Y122" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="123">
-      <c r="X123" t="s">
+      <c r="Y123" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="124">
-      <c r="X124" t="s">
+      <c r="Y124" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="125">
-      <c r="X125" t="s">
+      <c r="Y125" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="126">
-      <c r="X126" t="s">
+      <c r="Y126" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="127">
-      <c r="X127" t="s">
+      <c r="Y127" t="s">
         <v>169</v>
       </c>
     </row>

--- a/examples/macros/artifact/script/FindNexialCommands.xlsx
+++ b/examples/macros/artifact/script/FindNexialCommands.xlsx
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$4</definedName>
     <definedName name="image">'#system'!$J$2:$J$6</definedName>
-    <definedName name="io">'#system'!$K$2:$K$28</definedName>
+    <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
     <definedName name="json">'#system'!$M$2:$M$16</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
@@ -52,7 +52,7 @@
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$7</definedName>
+    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4808" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7472" uniqueCount="567">
   <si>
     <t>description</t>
   </si>
@@ -1806,13 +1806,34 @@
   <si>
     <t>runSQLs(var,sqls)</t>
   </si>
+  <si>
+    <t>exportJSON(sql,output,header)</t>
+  </si>
+  <si>
+    <t>exportXML(sql,output,root,row,cell)</t>
+  </si>
+  <si>
+    <t>importCSV(var,csv,table)</t>
+  </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget)</t>
+  </si>
+  <si>
+    <t>exportExcel(sql,output,sheet,start)</t>
+  </si>
+  <si>
+    <t>importEXCEL(var,excel,sheet,ranges,table)</t>
+  </si>
+  <si>
+    <t>exportEXCEL(sql,output,sheet,start)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="141" x14ac:knownFonts="1">
+  <fonts count="221" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2711,8 +2732,513 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="232">
+  <fills count="382">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4023,8 +4549,858 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="227">
+  <borders count="367">
     <border>
       <left/>
       <right/>
@@ -6318,6 +7694,1416 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -6325,7 +9111,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="248">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -6802,52 +9588,292 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="201" fontId="124" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="125" fillId="204" borderId="206" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="206" fillId="204" fontId="125" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="126" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="126" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="127" fillId="207" borderId="210" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="210" fillId="207" fontId="127" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="128" fillId="210" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="210" fontId="128" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="129" fillId="213" borderId="214" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="214" fillId="213" fontId="129" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="130" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="130" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="131" fillId="216" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="216" fontId="131" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="132" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="132" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="133" fillId="219" borderId="218" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="218" fillId="219" fontId="133" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="134" fillId="222" borderId="222" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="222" fillId="222" fontId="134" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="135" fillId="225" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="225" fontId="135" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="136" fillId="225" borderId="226" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="226" fillId="225" fontId="136" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="137" fillId="213" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="213" fontId="137" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="138" fillId="228" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="228" fontId="138" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="139" fillId="213" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="213" fontId="139" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="140" fillId="231" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="231" fontId="140" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="234" fillId="234" fontId="141" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="142" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="238" fillId="237" fontId="143" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="240" fontId="144" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="242" fillId="243" fontId="145" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="146" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="246" fontId="147" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="148" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="246" fillId="249" fontId="149" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="250" fillId="252" fontId="150" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="255" fontId="151" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="254" fillId="255" fontId="152" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="153" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="258" fontId="154" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="243" fontId="155" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="261" fontId="156" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="262" fillId="264" fontId="157" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="158" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="266" fillId="267" fontId="159" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="270" fontId="160" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="270" fillId="273" fontId="161" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="162" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="276" fontId="163" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="164" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="274" fillId="279" fontId="165" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="278" fillId="282" fontId="166" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="285" fontId="167" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="282" fillId="285" fontId="168" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="169" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="288" fontId="170" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="273" fontId="171" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="291" fontId="172" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="290" fillId="294" fontId="173" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="174" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="294" fillId="297" fontId="175" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="300" fontId="176" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="298" fillId="303" fontId="177" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="178" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="306" fontId="179" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="180" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="302" fillId="309" fontId="181" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="306" fillId="312" fontId="182" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="315" fontId="183" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="310" fillId="315" fontId="184" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="303" fontId="185" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="318" fontId="186" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="303" fontId="187" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="321" fontId="188" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="318" fillId="324" fontId="189" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="190" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="322" fillId="327" fontId="191" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="330" fontId="192" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="326" fillId="333" fontId="193" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="194" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="336" fontId="195" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="196" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="330" fillId="339" fontId="197" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="334" fillId="342" fontId="198" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="345" fontId="199" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="338" fillId="345" fontId="200" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="333" fontId="201" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="348" fontId="202" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="333" fontId="203" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="204" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="205" fillId="354" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="207" fillId="357" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="208" fillId="360" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="209" fillId="363" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="211" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="213" fillId="369" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="214" fillId="372" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="215" fillId="375" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="216" fillId="375" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="217" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="218" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="219" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="220" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -7598,7 +10624,7 @@
         <v>86</v>
       </c>
       <c r="N5" t="s">
-        <v>557</v>
+        <v>566</v>
       </c>
       <c r="Q5" t="s">
         <v>29</v>
@@ -7666,7 +10692,7 @@
         <v>28</v>
       </c>
       <c r="N6" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="Q6" t="s">
         <v>30</v>
@@ -7725,7 +10751,7 @@
         <v>314</v>
       </c>
       <c r="N7" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="Q7" t="s">
         <v>32</v>
@@ -7783,6 +10809,9 @@
       <c r="M8" t="s">
         <v>33</v>
       </c>
+      <c r="N8" t="s">
+        <v>562</v>
+      </c>
       <c r="Q8" t="s">
         <v>90</v>
       </c>
@@ -7836,6 +10865,9 @@
       <c r="M9" t="s">
         <v>34</v>
       </c>
+      <c r="N9" t="s">
+        <v>565</v>
+      </c>
       <c r="Q9" t="s">
         <v>91</v>
       </c>
@@ -7877,6 +10909,9 @@
       <c r="M10" t="s">
         <v>35</v>
       </c>
+      <c r="N10" t="s">
+        <v>557</v>
+      </c>
       <c r="Q10" t="s">
         <v>436</v>
       </c>
@@ -7915,6 +10950,9 @@
       <c r="M11" t="s">
         <v>470</v>
       </c>
+      <c r="N11" t="s">
+        <v>558</v>
+      </c>
       <c r="Q11" t="s">
         <v>92</v>
       </c>
@@ -7950,6 +10988,9 @@
       <c r="M12" t="s">
         <v>435</v>
       </c>
+      <c r="N12" t="s">
+        <v>559</v>
+      </c>
       <c r="Q12" t="s">
         <v>40</v>
       </c>
@@ -8265,7 +11306,7 @@
         <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>84</v>
+        <v>563</v>
       </c>
       <c r="Y25" t="s">
         <v>111</v>
@@ -8282,7 +11323,7 @@
         <v>281</v>
       </c>
       <c r="K26" t="s">
-        <v>433</v>
+        <v>84</v>
       </c>
       <c r="Y26" t="s">
         <v>112</v>
@@ -8299,7 +11340,7 @@
         <v>265</v>
       </c>
       <c r="K27" t="s">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="Y27" t="s">
         <v>113</v>
@@ -8316,7 +11357,7 @@
         <v>282</v>
       </c>
       <c r="K28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Y28" t="s">
         <v>326</v>
@@ -8331,6 +11372,9 @@
       </c>
       <c r="G29" t="s">
         <v>283</v>
+      </c>
+      <c r="K29" t="s">
+        <v>45</v>
       </c>
       <c r="Y29" t="s">
         <v>114</v>

--- a/examples/macros/artifact/script/FindNexialCommands.xlsx
+++ b/examples/macros/artifact/script/FindNexialCommands.xlsx
@@ -51,7 +51,7 @@
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
     <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
     <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
-    <definedName name="aws.sqs">'#system'!$D$2:$D$5</definedName>
+    <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7472" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8007" uniqueCount="568">
   <si>
     <t>description</t>
   </si>
@@ -1827,13 +1827,16 @@
   <si>
     <t>exportEXCEL(sql,output,sheet,start)</t>
   </si>
+  <si>
+    <t>purgeQueue(profile,queue,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="221" x14ac:knownFonts="1">
+  <fonts count="237" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3237,8 +3240,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="382">
+  <fills count="412">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5399,8 +5503,178 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="367">
+  <borders count="395">
     <border>
       <left/>
       <right/>
@@ -9104,6 +9378,288 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9111,7 +9667,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="248">
+  <cellXfs count="264">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -9828,52 +10384,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="351" fontId="204" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="205" fillId="354" borderId="346" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="346" fillId="354" fontId="205" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="206" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="206" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="207" fillId="357" borderId="350" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="350" fillId="357" fontId="207" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="208" fillId="360" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="360" fontId="208" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="209" fillId="363" borderId="354" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="354" fillId="363" fontId="209" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="210" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="210" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="211" fillId="366" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="366" fontId="211" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="212" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="212" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="213" fillId="369" borderId="358" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="358" fillId="369" fontId="213" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="214" fillId="372" borderId="362" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="362" fillId="372" fontId="214" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="215" fillId="375" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="375" fontId="215" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="216" fillId="375" borderId="366" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="366" fillId="375" fontId="216" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="217" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="363" fontId="217" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="218" fillId="378" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="378" fontId="218" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="219" fillId="363" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="363" fontId="219" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="220" fillId="381" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="220" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="221" fillId="384" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="223" fillId="387" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="224" fillId="390" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="225" fillId="393" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="227" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="229" fillId="399" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="230" fillId="402" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="231" fillId="405" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="232" fillId="405" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="233" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="234" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="235" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="236" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -10434,7 +11038,7 @@
         <v>456</v>
       </c>
       <c r="D3" t="s">
-        <v>529</v>
+        <v>567</v>
       </c>
       <c r="E3" t="s">
         <v>457</v>
@@ -10517,7 +11121,7 @@
         <v>373</v>
       </c>
       <c r="D4" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E4" t="s">
         <v>15</v>
@@ -10600,7 +11204,7 @@
         <v>374</v>
       </c>
       <c r="D5" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E5" t="s">
         <v>458</v>
@@ -10669,6 +11273,9 @@
       </c>
       <c r="B6" t="s">
         <v>375</v>
+      </c>
+      <c r="D6" t="s">
+        <v>531</v>
       </c>
       <c r="E6" t="s">
         <v>27</v>

--- a/examples/macros/artifact/script/FindNexialCommands.xlsx
+++ b/examples/macros/artifact/script/FindNexialCommands.xlsx
@@ -72,7 +72,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8007" uniqueCount="568">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9077" uniqueCount="569">
   <si>
     <t>description</t>
   </si>
@@ -1830,13 +1830,16 @@
   <si>
     <t>purgeQueue(profile,queue,var)</t>
   </si>
+  <si>
+    <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="237" x14ac:knownFonts="1">
+  <fonts count="269" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3341,8 +3344,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="823C3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="412">
+  <fills count="472">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5673,8 +5878,348 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6D7D7"/>
+        <bgColor rgb="E6D7D7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="395">
+  <borders count="451">
     <border>
       <left/>
       <right/>
@@ -9660,6 +10205,570 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -9667,7 +10776,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="296">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -10432,52 +11541,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="381" fontId="220" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="221" fillId="384" borderId="374" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="374" fillId="384" fontId="221" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="222" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="222" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="223" fillId="387" borderId="378" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="378" fillId="387" fontId="223" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="224" fillId="390" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="390" fontId="224" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="225" fillId="393" borderId="382" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="382" fillId="393" fontId="225" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="226" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="226" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="227" fillId="396" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="396" fontId="227" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="228" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="228" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="229" fillId="399" borderId="386" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="386" fillId="399" fontId="229" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="230" fillId="402" borderId="390" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="390" fillId="402" fontId="230" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="231" fillId="405" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="405" fontId="231" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="232" fillId="405" borderId="394" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="394" fillId="405" fontId="232" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="233" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="233" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="234" fillId="408" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="408" fontId="234" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="235" fillId="393" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="393" fontId="235" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="236" fillId="411" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="411" fontId="236" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="402" fillId="414" fontId="237" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="238" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="406" fillId="417" fontId="239" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="420" fontId="240" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="410" fillId="423" fontId="241" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="242" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="426" fontId="243" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="244" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="414" fillId="429" fontId="245" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="418" fillId="432" fontId="246" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="435" fontId="247" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="422" fillId="435" fontId="248" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="249" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="438" fontId="250" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="423" fontId="251" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="441" fontId="252" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="253" fillId="444" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="255" fillId="447" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="256" fillId="450" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="257" fillId="453" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="259" fillId="456" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="261" fillId="459" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="262" fillId="462" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="263" fillId="465" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="264" fillId="465" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="265" fillId="453" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="266" fillId="468" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="267" fillId="453" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="268" fillId="471" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11913,7 +13118,7 @@
         <v>75</v>
       </c>
       <c r="K25" t="s">
-        <v>563</v>
+        <v>568</v>
       </c>
       <c r="Y25" t="s">
         <v>111</v>

--- a/examples/macros/artifact/script/FindNexialCommands.xlsx
+++ b/examples/macros/artifact/script/FindNexialCommands.xlsx
@@ -20,17 +20,17 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$E$2:$E$38</definedName>
+    <definedName name="base">'#system'!$E$2:$E$39</definedName>
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$94</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$4</definedName>
-    <definedName name="image">'#system'!$J$2:$J$6</definedName>
+    <definedName name="external">'#system'!$I$2:$I$5</definedName>
+    <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$16</definedName>
+    <definedName name="json">'#system'!$M$2:$M$17</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -44,15 +44,16 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$127</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$21</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -72,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9077" uniqueCount="569">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11281" uniqueCount="587">
   <si>
     <t>description</t>
   </si>
@@ -1833,13 +1834,67 @@
   <si>
     <t>writeBase64decode(encodedSource,decodedTarget,append)</t>
   </si>
+  <si>
+    <t>saveModalDialogTextByLocator(var,locator)</t>
+  </si>
+  <si>
+    <t>typeKeys(os,keystrokes)</t>
+  </si>
+  <si>
+    <t>tail(id,file)</t>
+  </si>
+  <si>
+    <t>saveDiff(var,baseline,actual)</t>
+  </si>
+  <si>
+    <t>compact(var,json,removeEmpty)</t>
+  </si>
+  <si>
+    <t>assertTextNotContains(locator,text)</t>
+  </si>
+  <si>
+    <t>clickAll(locator)</t>
+  </si>
+  <si>
+    <t>assertSoap(wsdl,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultCode(expected,xml)</t>
+  </si>
+  <si>
+    <t>assertSoapFaultString(expected,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultCode(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultDetail(var,xml)</t>
+  </si>
+  <si>
+    <t>storeSoapFaultString(var,xml)</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>outputToCloud(resource)</t>
+  </si>
+  <si>
+    <t>spellCheck(var,profile,text)</t>
+  </si>
+  <si>
+    <t>clickScreen(button,modifiers,x,y)</t>
+  </si>
+  <si>
+    <t>mouseWheel(amount,modifiers,x,y)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="269" x14ac:knownFonts="1">
+  <fonts count="333" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -3546,8 +3601,412 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="472">
+  <fills count="580">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -6218,8 +6677,620 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="451">
+  <borders count="579">
     <border>
       <left/>
       <right/>
@@ -10769,6 +11840,1310 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -10776,7 +13151,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="296">
+  <cellXfs count="360">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -11637,52 +14012,244 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="441" fontId="252" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="253" fillId="444" borderId="430" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="430" fillId="444" fontId="253" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="254" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="254" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="255" fillId="447" borderId="434" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="434" fillId="447" fontId="255" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="256" fillId="450" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="450" fontId="256" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="257" fillId="453" borderId="438" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="438" fillId="453" fontId="257" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="258" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="258" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="259" fillId="456" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="456" fontId="259" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="260" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="260" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="261" fillId="459" borderId="442" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="442" fillId="459" fontId="261" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="262" fillId="462" borderId="446" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="446" fillId="462" fontId="262" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="263" fillId="465" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="465" fontId="263" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="264" fillId="465" borderId="450" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="450" fillId="465" fontId="264" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="265" fillId="453" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="453" fontId="265" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="266" fillId="468" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="468" fontId="266" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="267" fillId="453" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="453" fontId="267" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="268" fillId="471" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="471" fontId="268" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="458" fillId="474" fontId="269" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="270" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="462" fillId="477" fontId="271" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="466" fillId="480" fontId="272" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="470" fillId="483" fontId="273" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="274" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="486" fontId="275" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="276" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="474" fillId="489" fontId="277" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="478" fillId="480" fontId="278" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="492" fontId="279" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="482" fillId="492" fontId="280" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="483" fontId="281" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="495" fontId="282" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="483" fontId="283" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="498" fontId="284" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="490" fillId="501" fontId="285" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="286" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="494" fillId="504" fontId="287" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="498" fillId="507" fontId="288" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="502" fillId="510" fontId="289" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="290" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="513" fontId="291" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="292" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="506" fillId="516" fontId="293" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="510" fillId="507" fontId="294" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="519" fontId="295" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="514" fillId="519" fontId="296" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="510" fontId="297" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="522" fontId="298" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="510" fontId="299" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="525" fontId="300" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="522" fillId="528" fontId="301" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="302" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="526" fillId="531" fontId="303" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="530" fillId="534" fontId="304" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="534" fillId="537" fontId="305" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="306" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="540" fontId="307" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="308" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="538" fillId="543" fontId="309" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="542" fillId="534" fontId="310" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="546" fontId="311" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="546" fillId="546" fontId="312" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="537" fontId="313" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="549" fontId="314" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="537" fontId="315" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="552" fontId="316" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="317" fillId="555" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="319" fillId="558" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="320" fillId="561" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="321" fillId="564" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="323" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="325" fillId="570" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="326" fillId="561" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="327" fillId="573" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="328" fillId="573" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="329" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="330" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="331" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="332" fillId="579" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -12037,7 +14604,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE127"/>
+  <dimension ref="A1:AF129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -12122,21 +14689,24 @@
         <v>396</v>
       </c>
       <c r="Y1" t="s">
+        <v>582</v>
+      </c>
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>413</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -12214,21 +14784,24 @@
         <v>406</v>
       </c>
       <c r="Y2" t="s">
+        <v>584</v>
+      </c>
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>170</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>175</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>182</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>431</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>536</v>
       </c>
     </row>
@@ -12299,22 +14872,22 @@
       <c r="X3" t="s">
         <v>407</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>171</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>176</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>363</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>183</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -12382,22 +14955,22 @@
       <c r="X4" t="s">
         <v>408</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>353</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>172</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>177</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>183</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>423</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -12423,6 +14996,9 @@
       <c r="H5" t="s">
         <v>459</v>
       </c>
+      <c r="I5" t="s">
+        <v>571</v>
+      </c>
       <c r="J5" t="s">
         <v>350</v>
       </c>
@@ -12453,22 +15029,22 @@
       <c r="W5" t="s">
         <v>358</v>
       </c>
-      <c r="Y5" t="s">
+      <c r="Z5" t="s">
         <v>354</v>
       </c>
-      <c r="Z5" t="s">
+      <c r="AA5" t="s">
         <v>173</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>178</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>184</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>424</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -12521,22 +15097,22 @@
       <c r="W6" t="s">
         <v>360</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>444</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>179</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>185</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>425</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -12556,6 +15132,9 @@
       <c r="H7" t="s">
         <v>446</v>
       </c>
+      <c r="J7" t="s">
+        <v>572</v>
+      </c>
       <c r="K7" t="s">
         <v>16</v>
       </c>
@@ -12580,23 +15159,23 @@
       <c r="W7" t="s">
         <v>359</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>445</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>180</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>186</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>426</v>
       </c>
-      <c r="AD7" t="s">
-        <v>231</v>
+      <c r="AE7" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="8">
@@ -12636,23 +15215,23 @@
       <c r="W8" t="s">
         <v>361</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>174</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>181</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>187</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>427</v>
       </c>
-      <c r="AD8" t="s">
-        <v>232</v>
+      <c r="AE8" t="s">
+        <v>577</v>
       </c>
     </row>
     <row r="9">
@@ -12692,14 +15271,14 @@
       <c r="W9" t="s">
         <v>362</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>208</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>188</v>
       </c>
-      <c r="AD9" t="s">
-        <v>233</v>
+      <c r="AE9" t="s">
+        <v>578</v>
       </c>
     </row>
     <row r="10">
@@ -12733,14 +15312,14 @@
       <c r="T10" t="s">
         <v>405</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>256</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>189</v>
       </c>
-      <c r="AD10" t="s">
-        <v>473</v>
+      <c r="AE10" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="11">
@@ -12771,14 +15350,14 @@
       <c r="R11" t="s">
         <v>247</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>257</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>258</v>
       </c>
-      <c r="AD11" t="s">
-        <v>537</v>
+      <c r="AE11" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="12">
@@ -12798,7 +15377,7 @@
         <v>389</v>
       </c>
       <c r="M12" t="s">
-        <v>435</v>
+        <v>573</v>
       </c>
       <c r="N12" t="s">
         <v>559</v>
@@ -12809,14 +15388,14 @@
       <c r="R12" t="s">
         <v>248</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>190</v>
       </c>
-      <c r="AD12" t="s">
-        <v>538</v>
+      <c r="AE12" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="13">
@@ -12836,7 +15415,7 @@
         <v>17</v>
       </c>
       <c r="M13" t="s">
-        <v>471</v>
+        <v>435</v>
       </c>
       <c r="Q13" t="s">
         <v>93</v>
@@ -12844,14 +15423,14 @@
       <c r="R13" t="s">
         <v>253</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>325</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>191</v>
       </c>
-      <c r="AD13" t="s">
-        <v>539</v>
+      <c r="AE13" t="s">
+        <v>473</v>
       </c>
     </row>
     <row r="14">
@@ -12871,7 +15450,7 @@
         <v>41</v>
       </c>
       <c r="M14" t="s">
-        <v>38</v>
+        <v>471</v>
       </c>
       <c r="Q14" t="s">
         <v>94</v>
@@ -12879,14 +15458,14 @@
       <c r="R14" t="s">
         <v>249</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>192</v>
       </c>
-      <c r="AD14" t="s">
-        <v>540</v>
+      <c r="AE14" t="s">
+        <v>537</v>
       </c>
     </row>
     <row r="15">
@@ -12903,7 +15482,7 @@
         <v>547</v>
       </c>
       <c r="M15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="Q15" t="s">
         <v>532</v>
@@ -12911,14 +15490,14 @@
       <c r="R15" t="s">
         <v>250</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>193</v>
       </c>
-      <c r="AD15" t="s">
-        <v>474</v>
+      <c r="AE15" t="s">
+        <v>538</v>
       </c>
     </row>
     <row r="16">
@@ -12935,7 +15514,7 @@
         <v>80</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="Q16" t="s">
         <v>533</v>
@@ -12943,14 +15522,14 @@
       <c r="R16" t="s">
         <v>251</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>74</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>194</v>
       </c>
-      <c r="AD16" t="s">
-        <v>541</v>
+      <c r="AE16" t="s">
+        <v>539</v>
       </c>
     </row>
     <row r="17">
@@ -12966,14 +15545,17 @@
       <c r="K17" t="s">
         <v>81</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="M17" t="s">
+        <v>42</v>
+      </c>
+      <c r="Z17" t="s">
         <v>534</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>466</v>
       </c>
-      <c r="AD17" t="s">
-        <v>542</v>
+      <c r="AE17" t="s">
+        <v>540</v>
       </c>
     </row>
     <row r="18">
@@ -12989,11 +15571,11 @@
       <c r="K18" t="s">
         <v>462</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
-        <v>543</v>
+      <c r="AE18" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="19">
@@ -13009,11 +15591,11 @@
       <c r="K19" t="s">
         <v>82</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
-        <v>234</v>
+      <c r="AE19" t="s">
+        <v>541</v>
       </c>
     </row>
     <row r="20">
@@ -13029,11 +15611,11 @@
       <c r="K20" t="s">
         <v>83</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
-        <v>235</v>
+      <c r="AE20" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="21">
@@ -13049,11 +15631,11 @@
       <c r="K21" t="s">
         <v>379</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
-        <v>236</v>
+      <c r="AE21" t="s">
+        <v>543</v>
       </c>
     </row>
     <row r="22">
@@ -13061,7 +15643,7 @@
         <v>412</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>583</v>
       </c>
       <c r="G22" t="s">
         <v>298</v>
@@ -13069,8 +15651,11 @@
       <c r="K22" t="s">
         <v>469</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>526</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="23">
@@ -13078,7 +15663,7 @@
         <v>356</v>
       </c>
       <c r="E23" t="s">
-        <v>320</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
         <v>289</v>
@@ -13086,8 +15671,11 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>109</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>579</v>
       </c>
     </row>
     <row r="24">
@@ -13095,7 +15683,7 @@
         <v>396</v>
       </c>
       <c r="E24" t="s">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="G24" t="s">
         <v>278</v>
@@ -13103,16 +15691,19 @@
       <c r="K24" t="s">
         <v>391</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>110</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>580</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>582</v>
       </c>
       <c r="E25" t="s">
-        <v>448</v>
+        <v>62</v>
       </c>
       <c r="G25" t="s">
         <v>75</v>
@@ -13120,16 +15711,19 @@
       <c r="K25" t="s">
         <v>568</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>111</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>581</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E26" t="s">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="G26" t="s">
         <v>281</v>
@@ -13137,16 +15731,19 @@
       <c r="K26" t="s">
         <v>84</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>112</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G27" t="s">
         <v>265</v>
@@ -13154,16 +15751,19 @@
       <c r="K27" t="s">
         <v>433</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>113</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E28" t="s">
-        <v>467</v>
+        <v>225</v>
       </c>
       <c r="G28" t="s">
         <v>282</v>
@@ -13171,16 +15771,16 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>413</v>
+        <v>56</v>
       </c>
       <c r="E29" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G29" t="s">
         <v>283</v>
@@ -13188,722 +15788,747 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>226</v>
+        <v>413</v>
       </c>
       <c r="E30" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="G30" t="s">
         <v>215</v>
       </c>
-      <c r="Y30" t="s">
+      <c r="Z30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="s">
+        <v>226</v>
+      </c>
       <c r="E31" t="s">
-        <v>63</v>
+        <v>415</v>
       </c>
       <c r="G31" t="s">
         <v>274</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="32">
       <c r="E32" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G32" t="s">
         <v>284</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="33">
       <c r="E33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G33" t="s">
         <v>549</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="34">
       <c r="E34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G34" t="s">
         <v>259</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="35">
       <c r="E35" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G35" t="s">
         <v>329</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="36">
       <c r="E36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G36" t="s">
         <v>306</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="37">
       <c r="E37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G37" t="s">
         <v>260</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="38">
       <c r="E38" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G38" t="s">
         <v>307</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="39">
+      <c r="E39" t="s">
+        <v>70</v>
+      </c>
       <c r="G39" t="s">
         <v>266</v>
       </c>
-      <c r="Y39" t="s">
-        <v>392</v>
+      <c r="Z39" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
         <v>77</v>
       </c>
-      <c r="Y40" t="s">
-        <v>121</v>
+      <c r="Z40" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
         <v>211</v>
       </c>
-      <c r="Y41" t="s">
-        <v>122</v>
+      <c r="Z41" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>288</v>
-      </c>
-      <c r="Y42" t="s">
-        <v>123</v>
+        <v>585</v>
+      </c>
+      <c r="Z42" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>299</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>124</v>
+        <v>288</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>300</v>
-      </c>
-      <c r="Y44" t="s">
-        <v>125</v>
+        <v>299</v>
+      </c>
+      <c r="Z44" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>342</v>
-      </c>
-      <c r="Y45" t="s">
-        <v>126</v>
+        <v>300</v>
+      </c>
+      <c r="Z45" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>341</v>
-      </c>
-      <c r="Y46" t="s">
-        <v>438</v>
+        <v>342</v>
+      </c>
+      <c r="Z46" t="s">
+        <v>126</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>210</v>
-      </c>
-      <c r="Y47" t="s">
-        <v>212</v>
+        <v>341</v>
+      </c>
+      <c r="Z47" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>319</v>
-      </c>
-      <c r="Y48" t="s">
-        <v>76</v>
+        <v>210</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>338</v>
-      </c>
-      <c r="Y49" t="s">
-        <v>127</v>
+        <v>319</v>
+      </c>
+      <c r="Z49" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>367</v>
-      </c>
-      <c r="Y50" t="s">
-        <v>128</v>
+        <v>338</v>
+      </c>
+      <c r="Z50" t="s">
+        <v>575</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>301</v>
-      </c>
-      <c r="Y51" t="s">
-        <v>129</v>
+        <v>367</v>
+      </c>
+      <c r="Z51" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>355</v>
-      </c>
-      <c r="Y52" t="s">
-        <v>481</v>
+        <v>301</v>
+      </c>
+      <c r="Z52" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>330</v>
-      </c>
-      <c r="Y53" t="s">
-        <v>463</v>
+        <v>355</v>
+      </c>
+      <c r="Z53" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>267</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>130</v>
+        <v>330</v>
+      </c>
+      <c r="Z54" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>291</v>
-      </c>
-      <c r="Y55" t="s">
-        <v>345</v>
+        <v>267</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>463</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>292</v>
-      </c>
-      <c r="Y56" t="s">
-        <v>464</v>
+        <v>291</v>
+      </c>
+      <c r="Z56" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>293</v>
-      </c>
-      <c r="Y57" t="s">
-        <v>131</v>
+        <v>292</v>
+      </c>
+      <c r="Z57" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y58" t="s">
-        <v>132</v>
+        <v>586</v>
+      </c>
+      <c r="Z58" t="s">
+        <v>464</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>311</v>
-      </c>
-      <c r="Y59" t="s">
-        <v>133</v>
+        <v>293</v>
+      </c>
+      <c r="Z59" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>336</v>
-      </c>
-      <c r="Y60" t="s">
-        <v>134</v>
+        <v>302</v>
+      </c>
+      <c r="Z60" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>308</v>
-      </c>
-      <c r="Y61" t="s">
-        <v>135</v>
+        <v>311</v>
+      </c>
+      <c r="Z61" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>309</v>
-      </c>
-      <c r="Y62" t="s">
-        <v>136</v>
+        <v>336</v>
+      </c>
+      <c r="Z62" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>368</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>137</v>
+        <v>308</v>
+      </c>
+      <c r="Z63" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>369</v>
-      </c>
-      <c r="Y64" t="s">
-        <v>439</v>
+        <v>309</v>
+      </c>
+      <c r="Z64" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>344</v>
-      </c>
-      <c r="Y65" t="s">
-        <v>472</v>
+        <v>368</v>
+      </c>
+      <c r="Z65" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>312</v>
-      </c>
-      <c r="Y66" t="s">
-        <v>213</v>
+        <v>369</v>
+      </c>
+      <c r="Z66" t="s">
+        <v>439</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>268</v>
-      </c>
-      <c r="Y67" t="s">
-        <v>388</v>
+        <v>344</v>
+      </c>
+      <c r="Z67" t="s">
+        <v>472</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>352</v>
-      </c>
-      <c r="Y68" t="s">
-        <v>440</v>
+        <v>312</v>
+      </c>
+      <c r="Z68" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>313</v>
-      </c>
-      <c r="Y69" t="s">
-        <v>138</v>
+        <v>268</v>
+      </c>
+      <c r="Z69" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>409</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>139</v>
+        <v>569</v>
+      </c>
+      <c r="Z70" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>303</v>
-      </c>
-      <c r="Y71" t="s">
-        <v>140</v>
+        <v>313</v>
+      </c>
+      <c r="Z71" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>410</v>
-      </c>
-      <c r="Y72" t="s">
-        <v>141</v>
+        <v>409</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>261</v>
-      </c>
-      <c r="Y73" t="s">
-        <v>196</v>
+        <v>303</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>550</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>197</v>
+        <v>410</v>
+      </c>
+      <c r="Z74" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>343</v>
-      </c>
-      <c r="Y75" t="s">
-        <v>452</v>
+        <v>261</v>
+      </c>
+      <c r="Z75" t="s">
+        <v>196</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>279</v>
-      </c>
-      <c r="Y76" t="s">
-        <v>465</v>
+        <v>550</v>
+      </c>
+      <c r="Z76" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y77" t="s">
-        <v>142</v>
+        <v>343</v>
+      </c>
+      <c r="Z77" t="s">
+        <v>452</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>290</v>
-      </c>
-      <c r="Y78" t="s">
-        <v>143</v>
+        <v>279</v>
+      </c>
+      <c r="Z78" t="s">
+        <v>465</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>428</v>
-      </c>
-      <c r="Y79" t="s">
-        <v>144</v>
+        <v>285</v>
+      </c>
+      <c r="Z79" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>331</v>
-      </c>
-      <c r="Y80" t="s">
-        <v>535</v>
+        <v>290</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>269</v>
-      </c>
-      <c r="Y81" t="s">
-        <v>145</v>
+        <v>428</v>
+      </c>
+      <c r="Z81" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>280</v>
-      </c>
-      <c r="Y82" t="s">
-        <v>146</v>
+        <v>331</v>
+      </c>
+      <c r="Z82" t="s">
+        <v>535</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>286</v>
-      </c>
-      <c r="Y83" t="s">
-        <v>198</v>
+        <v>269</v>
+      </c>
+      <c r="Z83" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>275</v>
-      </c>
-      <c r="Y84" t="s">
-        <v>504</v>
+        <v>280</v>
+      </c>
+      <c r="Z84" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>270</v>
-      </c>
-      <c r="Y85" t="s">
-        <v>199</v>
+        <v>286</v>
+      </c>
+      <c r="Z85" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>287</v>
-      </c>
-      <c r="Y86" t="s">
-        <v>453</v>
+        <v>275</v>
+      </c>
+      <c r="Z86" t="s">
+        <v>504</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>271</v>
-      </c>
-      <c r="Y87" t="s">
-        <v>200</v>
+        <v>570</v>
+      </c>
+      <c r="Z87" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>272</v>
-      </c>
-      <c r="Y88" t="s">
-        <v>201</v>
+        <v>270</v>
+      </c>
+      <c r="Z88" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>304</v>
-      </c>
-      <c r="Y89" t="s">
-        <v>214</v>
+        <v>287</v>
+      </c>
+      <c r="Z89" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>310</v>
-      </c>
-      <c r="Y90" t="s">
-        <v>147</v>
+        <v>271</v>
+      </c>
+      <c r="Z90" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>294</v>
-      </c>
-      <c r="Y91" t="s">
-        <v>202</v>
+        <v>272</v>
+      </c>
+      <c r="Z91" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>339</v>
-      </c>
-      <c r="Y92" t="s">
-        <v>441</v>
+        <v>304</v>
+      </c>
+      <c r="Z92" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>276</v>
-      </c>
-      <c r="Y93" t="s">
-        <v>442</v>
+        <v>310</v>
+      </c>
+      <c r="Z93" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
+        <v>294</v>
+      </c>
+      <c r="Z94" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="G95" t="s">
+        <v>339</v>
+      </c>
+      <c r="Z95" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="G96" t="s">
+        <v>276</v>
+      </c>
+      <c r="Z96" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="G97" t="s">
         <v>277</v>
       </c>
-      <c r="Y94" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="Y95" t="s">
+      <c r="Z97" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="96">
-      <c r="Y96" t="s">
+    <row r="98">
+      <c r="Z98" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="97">
-      <c r="Y97" t="s">
+    <row r="99">
+      <c r="Z99" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="98">
-      <c r="Y98" t="s">
+    <row r="100">
+      <c r="Z100" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="99">
-      <c r="Y99" t="s">
+    <row r="101">
+      <c r="Z101" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="100">
-      <c r="Y100" t="s">
+    <row r="102">
+      <c r="Z102" t="s">
         <v>548</v>
       </c>
     </row>
-    <row r="101">
-      <c r="Y101" t="s">
+    <row r="103">
+      <c r="Z103" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="102">
-      <c r="Y102" t="s">
+    <row r="104">
+      <c r="Z104" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="103">
-      <c r="Y103" t="s">
+    <row r="105">
+      <c r="Z105" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="104">
-      <c r="Y104" t="s">
+    <row r="106">
+      <c r="Z106" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="105">
-      <c r="Y105" t="s">
+    <row r="107">
+      <c r="Z107" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="106">
-      <c r="Y106" t="s">
+    <row r="108">
+      <c r="Z108" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="107">
-      <c r="Y107" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>169</v>
       </c>
     </row>

--- a/examples/macros/artifact/script/FindNexialCommands.xlsx
+++ b/examples/macros/artifact/script/FindNexialCommands.xlsx
@@ -30,7 +30,7 @@
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
     <definedName name="io">'#system'!$K$2:$K$29</definedName>
     <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$17</definedName>
+    <definedName name="json">'#system'!$M$2:$M$18</definedName>
     <definedName name="macro">'#system'!$O$2:$O$4</definedName>
     <definedName name="mail">'#system'!$P$2:$P$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
@@ -44,13 +44,13 @@
     <definedName name="sound">'#system'!$V$2:$V$5</definedName>
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$129</definedName>
-    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
-    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
-    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
-    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
+    <definedName name="target">'#system'!$A$2:$A$30</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
+    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
+    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
+    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
     <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11281" uniqueCount="587">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11832" uniqueCount="588">
   <si>
     <t>description</t>
   </si>
@@ -1888,13 +1888,16 @@
   <si>
     <t>mouseWheel(amount,modifiers,x,y)</t>
   </si>
+  <si>
+    <t>storeKeys(json,jsonpath,var)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="333" x14ac:knownFonts="1">
+  <fonts count="349" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4005,8 +4008,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="580">
+  <fills count="607">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7289,8 +7393,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="579">
+  <borders count="611">
     <border>
       <left/>
       <right/>
@@ -13144,6 +13401,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13151,7 +13734,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="360">
+  <cellXfs count="376">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14204,52 +14787,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="552" fontId="316" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="317" fillId="555" borderId="554" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="554" fillId="555" fontId="317" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="318" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="318" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="319" fillId="558" borderId="558" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="558" fillId="558" fontId="319" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="320" fillId="561" borderId="562" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="562" fillId="561" fontId="320" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="321" fillId="564" borderId="566" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="566" fillId="564" fontId="321" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="322" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="322" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="323" fillId="567" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="567" fontId="323" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="324" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="324" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="325" fillId="570" borderId="570" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="570" fillId="570" fontId="325" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="326" fillId="561" borderId="574" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="574" fillId="561" fontId="326" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="327" fillId="573" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="573" fontId="327" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="328" fillId="573" borderId="578" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="578" fillId="573" fontId="328" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="329" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="564" fontId="329" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="330" fillId="576" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="576" fontId="330" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="331" fillId="564" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="564" fontId="331" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="332" fillId="579" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="579" fontId="332" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="333" fillId="582" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="335" fillId="585" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="336" fillId="588" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="337" fillId="591" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="339" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="341" fillId="597" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="342" fillId="588" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="343" fillId="600" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="344" fillId="600" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="345" fillId="591" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="346" fillId="603" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="347" fillId="591" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="348" fillId="606" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -14604,7 +15235,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF129"/>
+  <dimension ref="A1:AE129"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -14689,24 +15320,21 @@
         <v>396</v>
       </c>
       <c r="Y1" t="s">
-        <v>582</v>
+        <v>53</v>
       </c>
       <c r="Z1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC1" t="s">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="AD1" t="s">
-        <v>413</v>
-      </c>
-      <c r="AE1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -14784,24 +15412,21 @@
         <v>406</v>
       </c>
       <c r="Y2" t="s">
-        <v>584</v>
+        <v>96</v>
       </c>
       <c r="Z2" t="s">
-        <v>96</v>
+        <v>170</v>
       </c>
       <c r="AA2" t="s">
-        <v>170</v>
+        <v>175</v>
       </c>
       <c r="AB2" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="AC2" t="s">
-        <v>182</v>
+        <v>431</v>
       </c>
       <c r="AD2" t="s">
-        <v>431</v>
-      </c>
-      <c r="AE2" t="s">
         <v>536</v>
       </c>
     </row>
@@ -14872,22 +15497,22 @@
       <c r="X3" t="s">
         <v>407</v>
       </c>
+      <c r="Y3" t="s">
+        <v>97</v>
+      </c>
       <c r="Z3" t="s">
-        <v>97</v>
+        <v>171</v>
       </c>
       <c r="AA3" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AB3" t="s">
-        <v>176</v>
+        <v>363</v>
       </c>
       <c r="AC3" t="s">
-        <v>363</v>
+        <v>183</v>
       </c>
       <c r="AD3" t="s">
-        <v>183</v>
-      </c>
-      <c r="AE3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -14955,22 +15580,22 @@
       <c r="X4" t="s">
         <v>408</v>
       </c>
+      <c r="Y4" t="s">
+        <v>353</v>
+      </c>
       <c r="Z4" t="s">
-        <v>353</v>
+        <v>172</v>
       </c>
       <c r="AA4" t="s">
-        <v>172</v>
+        <v>177</v>
       </c>
       <c r="AB4" t="s">
-        <v>177</v>
+        <v>183</v>
       </c>
       <c r="AC4" t="s">
-        <v>183</v>
+        <v>423</v>
       </c>
       <c r="AD4" t="s">
-        <v>423</v>
-      </c>
-      <c r="AE4" t="s">
         <v>228</v>
       </c>
     </row>
@@ -15029,22 +15654,22 @@
       <c r="W5" t="s">
         <v>358</v>
       </c>
+      <c r="Y5" t="s">
+        <v>354</v>
+      </c>
       <c r="Z5" t="s">
-        <v>354</v>
+        <v>173</v>
       </c>
       <c r="AA5" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="AB5" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
       <c r="AC5" t="s">
-        <v>184</v>
+        <v>424</v>
       </c>
       <c r="AD5" t="s">
-        <v>424</v>
-      </c>
-      <c r="AE5" t="s">
         <v>229</v>
       </c>
     </row>
@@ -15097,22 +15722,22 @@
       <c r="W6" t="s">
         <v>360</v>
       </c>
+      <c r="Y6" t="s">
+        <v>98</v>
+      </c>
       <c r="Z6" t="s">
-        <v>98</v>
+        <v>444</v>
       </c>
       <c r="AA6" t="s">
-        <v>444</v>
+        <v>179</v>
       </c>
       <c r="AB6" t="s">
-        <v>179</v>
+        <v>185</v>
       </c>
       <c r="AC6" t="s">
-        <v>185</v>
+        <v>425</v>
       </c>
       <c r="AD6" t="s">
-        <v>425</v>
-      </c>
-      <c r="AE6" t="s">
         <v>230</v>
       </c>
     </row>
@@ -15159,22 +15784,22 @@
       <c r="W7" t="s">
         <v>359</v>
       </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
       <c r="Z7" t="s">
-        <v>99</v>
+        <v>445</v>
       </c>
       <c r="AA7" t="s">
-        <v>445</v>
+        <v>180</v>
       </c>
       <c r="AB7" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="AC7" t="s">
-        <v>186</v>
+        <v>426</v>
       </c>
       <c r="AD7" t="s">
-        <v>426</v>
-      </c>
-      <c r="AE7" t="s">
         <v>576</v>
       </c>
     </row>
@@ -15215,22 +15840,22 @@
       <c r="W8" t="s">
         <v>361</v>
       </c>
+      <c r="Y8" t="s">
+        <v>100</v>
+      </c>
       <c r="Z8" t="s">
-        <v>100</v>
+        <v>174</v>
       </c>
       <c r="AA8" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="AB8" t="s">
-        <v>181</v>
+        <v>187</v>
       </c>
       <c r="AC8" t="s">
-        <v>187</v>
+        <v>427</v>
       </c>
       <c r="AD8" t="s">
-        <v>427</v>
-      </c>
-      <c r="AE8" t="s">
         <v>577</v>
       </c>
     </row>
@@ -15271,13 +15896,13 @@
       <c r="W9" t="s">
         <v>362</v>
       </c>
-      <c r="Z9" t="s">
+      <c r="Y9" t="s">
         <v>208</v>
       </c>
-      <c r="AC9" t="s">
+      <c r="AB9" t="s">
         <v>188</v>
       </c>
-      <c r="AE9" t="s">
+      <c r="AD9" t="s">
         <v>578</v>
       </c>
     </row>
@@ -15312,13 +15937,13 @@
       <c r="T10" t="s">
         <v>405</v>
       </c>
-      <c r="Z10" t="s">
+      <c r="Y10" t="s">
         <v>256</v>
       </c>
-      <c r="AC10" t="s">
+      <c r="AB10" t="s">
         <v>189</v>
       </c>
-      <c r="AE10" t="s">
+      <c r="AD10" t="s">
         <v>231</v>
       </c>
     </row>
@@ -15350,13 +15975,13 @@
       <c r="R11" t="s">
         <v>247</v>
       </c>
-      <c r="Z11" t="s">
+      <c r="Y11" t="s">
         <v>257</v>
       </c>
-      <c r="AC11" t="s">
+      <c r="AB11" t="s">
         <v>258</v>
       </c>
-      <c r="AE11" t="s">
+      <c r="AD11" t="s">
         <v>232</v>
       </c>
     </row>
@@ -15388,13 +16013,13 @@
       <c r="R12" t="s">
         <v>248</v>
       </c>
-      <c r="Z12" t="s">
+      <c r="Y12" t="s">
         <v>101</v>
       </c>
-      <c r="AC12" t="s">
+      <c r="AB12" t="s">
         <v>190</v>
       </c>
-      <c r="AE12" t="s">
+      <c r="AD12" t="s">
         <v>233</v>
       </c>
     </row>
@@ -15423,13 +16048,13 @@
       <c r="R13" t="s">
         <v>253</v>
       </c>
-      <c r="Z13" t="s">
+      <c r="Y13" t="s">
         <v>325</v>
       </c>
-      <c r="AC13" t="s">
+      <c r="AB13" t="s">
         <v>191</v>
       </c>
-      <c r="AE13" t="s">
+      <c r="AD13" t="s">
         <v>473</v>
       </c>
     </row>
@@ -15458,13 +16083,13 @@
       <c r="R14" t="s">
         <v>249</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="Y14" t="s">
         <v>102</v>
       </c>
-      <c r="AC14" t="s">
+      <c r="AB14" t="s">
         <v>192</v>
       </c>
-      <c r="AE14" t="s">
+      <c r="AD14" t="s">
         <v>537</v>
       </c>
     </row>
@@ -15490,13 +16115,13 @@
       <c r="R15" t="s">
         <v>250</v>
       </c>
-      <c r="Z15" t="s">
+      <c r="Y15" t="s">
         <v>103</v>
       </c>
-      <c r="AC15" t="s">
+      <c r="AB15" t="s">
         <v>193</v>
       </c>
-      <c r="AE15" t="s">
+      <c r="AD15" t="s">
         <v>538</v>
       </c>
     </row>
@@ -15514,7 +16139,7 @@
         <v>80</v>
       </c>
       <c r="M16" t="s">
-        <v>39</v>
+        <v>587</v>
       </c>
       <c r="Q16" t="s">
         <v>533</v>
@@ -15522,13 +16147,13 @@
       <c r="R16" t="s">
         <v>251</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Y16" t="s">
         <v>74</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AB16" t="s">
         <v>194</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AD16" t="s">
         <v>539</v>
       </c>
     </row>
@@ -15546,15 +16171,15 @@
         <v>81</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
-      </c>
-      <c r="Z17" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y17" t="s">
         <v>534</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AB17" t="s">
         <v>466</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AD17" t="s">
         <v>540</v>
       </c>
     </row>
@@ -15571,10 +16196,13 @@
       <c r="K18" t="s">
         <v>462</v>
       </c>
-      <c r="Z18" t="s">
+      <c r="M18" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y18" t="s">
         <v>104</v>
       </c>
-      <c r="AE18" t="s">
+      <c r="AD18" t="s">
         <v>474</v>
       </c>
     </row>
@@ -15591,10 +16219,10 @@
       <c r="K19" t="s">
         <v>82</v>
       </c>
-      <c r="Z19" t="s">
+      <c r="Y19" t="s">
         <v>105</v>
       </c>
-      <c r="AE19" t="s">
+      <c r="AD19" t="s">
         <v>541</v>
       </c>
     </row>
@@ -15611,10 +16239,10 @@
       <c r="K20" t="s">
         <v>83</v>
       </c>
-      <c r="Z20" t="s">
+      <c r="Y20" t="s">
         <v>106</v>
       </c>
-      <c r="AE20" t="s">
+      <c r="AD20" t="s">
         <v>542</v>
       </c>
     </row>
@@ -15631,10 +16259,10 @@
       <c r="K21" t="s">
         <v>379</v>
       </c>
-      <c r="Z21" t="s">
+      <c r="Y21" t="s">
         <v>107</v>
       </c>
-      <c r="AE21" t="s">
+      <c r="AD21" t="s">
         <v>543</v>
       </c>
     </row>
@@ -15651,10 +16279,10 @@
       <c r="K22" t="s">
         <v>469</v>
       </c>
-      <c r="Z22" t="s">
+      <c r="Y22" t="s">
         <v>526</v>
       </c>
-      <c r="AE22" t="s">
+      <c r="AD22" t="s">
         <v>234</v>
       </c>
     </row>
@@ -15671,10 +16299,10 @@
       <c r="K23" t="s">
         <v>43</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="Y23" t="s">
         <v>109</v>
       </c>
-      <c r="AE23" t="s">
+      <c r="AD23" t="s">
         <v>579</v>
       </c>
     </row>
@@ -15691,16 +16319,16 @@
       <c r="K24" t="s">
         <v>391</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Y24" t="s">
         <v>110</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AD24" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>582</v>
+        <v>53</v>
       </c>
       <c r="E25" t="s">
         <v>62</v>
@@ -15711,16 +16339,16 @@
       <c r="K25" t="s">
         <v>568</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Y25" t="s">
         <v>111</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AD25" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E26" t="s">
         <v>448</v>
@@ -15731,16 +16359,16 @@
       <c r="K26" t="s">
         <v>84</v>
       </c>
-      <c r="Z26" t="s">
+      <c r="Y26" t="s">
         <v>112</v>
       </c>
-      <c r="AE26" t="s">
+      <c r="AD26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E27" t="s">
         <v>224</v>
@@ -15751,16 +16379,16 @@
       <c r="K27" t="s">
         <v>433</v>
       </c>
-      <c r="Z27" t="s">
+      <c r="Y27" t="s">
         <v>113</v>
       </c>
-      <c r="AE27" t="s">
+      <c r="AD27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E28" t="s">
         <v>225</v>
@@ -15771,13 +16399,13 @@
       <c r="K28" t="s">
         <v>44</v>
       </c>
-      <c r="Z28" t="s">
+      <c r="Y28" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>56</v>
+        <v>413</v>
       </c>
       <c r="E29" t="s">
         <v>467</v>
@@ -15788,13 +16416,13 @@
       <c r="K29" t="s">
         <v>45</v>
       </c>
-      <c r="Z29" t="s">
+      <c r="Y29" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>413</v>
+        <v>226</v>
       </c>
       <c r="E30" t="s">
         <v>468</v>
@@ -15802,21 +16430,18 @@
       <c r="G30" t="s">
         <v>215</v>
       </c>
-      <c r="Z30" t="s">
+      <c r="Y30" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="s">
-        <v>226</v>
-      </c>
       <c r="E31" t="s">
         <v>415</v>
       </c>
       <c r="G31" t="s">
         <v>274</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="Y31" t="s">
         <v>116</v>
       </c>
     </row>
@@ -15827,7 +16452,7 @@
       <c r="G32" t="s">
         <v>284</v>
       </c>
-      <c r="Z32" t="s">
+      <c r="Y32" t="s">
         <v>117</v>
       </c>
     </row>
@@ -15838,7 +16463,7 @@
       <c r="G33" t="s">
         <v>549</v>
       </c>
-      <c r="Z33" t="s">
+      <c r="Y33" t="s">
         <v>118</v>
       </c>
     </row>
@@ -15849,7 +16474,7 @@
       <c r="G34" t="s">
         <v>259</v>
       </c>
-      <c r="Z34" t="s">
+      <c r="Y34" t="s">
         <v>119</v>
       </c>
     </row>
@@ -15860,7 +16485,7 @@
       <c r="G35" t="s">
         <v>329</v>
       </c>
-      <c r="Z35" t="s">
+      <c r="Y35" t="s">
         <v>209</v>
       </c>
     </row>
@@ -15871,7 +16496,7 @@
       <c r="G36" t="s">
         <v>306</v>
       </c>
-      <c r="Z36" t="s">
+      <c r="Y36" t="s">
         <v>120</v>
       </c>
     </row>
@@ -15882,7 +16507,7 @@
       <c r="G37" t="s">
         <v>260</v>
       </c>
-      <c r="Z37" t="s">
+      <c r="Y37" t="s">
         <v>337</v>
       </c>
     </row>
@@ -15893,7 +16518,7 @@
       <c r="G38" t="s">
         <v>307</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="Y38" t="s">
         <v>437</v>
       </c>
     </row>
@@ -15904,7 +16529,7 @@
       <c r="G39" t="s">
         <v>266</v>
       </c>
-      <c r="Z39" t="s">
+      <c r="Y39" t="s">
         <v>574</v>
       </c>
     </row>
@@ -15912,7 +16537,7 @@
       <c r="G40" t="s">
         <v>77</v>
       </c>
-      <c r="Z40" t="s">
+      <c r="Y40" t="s">
         <v>392</v>
       </c>
     </row>
@@ -15920,7 +16545,7 @@
       <c r="G41" t="s">
         <v>211</v>
       </c>
-      <c r="Z41" t="s">
+      <c r="Y41" t="s">
         <v>121</v>
       </c>
     </row>
@@ -15928,7 +16553,7 @@
       <c r="G42" t="s">
         <v>585</v>
       </c>
-      <c r="Z42" t="s">
+      <c r="Y42" t="s">
         <v>122</v>
       </c>
     </row>
@@ -15936,7 +16561,7 @@
       <c r="G43" t="s">
         <v>288</v>
       </c>
-      <c r="Z43" t="s">
+      <c r="Y43" t="s">
         <v>123</v>
       </c>
     </row>
@@ -15944,7 +16569,7 @@
       <c r="G44" t="s">
         <v>299</v>
       </c>
-      <c r="Z44" t="s">
+      <c r="Y44" t="s">
         <v>124</v>
       </c>
     </row>
@@ -15952,7 +16577,7 @@
       <c r="G45" t="s">
         <v>300</v>
       </c>
-      <c r="Z45" t="s">
+      <c r="Y45" t="s">
         <v>125</v>
       </c>
     </row>
@@ -15960,7 +16585,7 @@
       <c r="G46" t="s">
         <v>342</v>
       </c>
-      <c r="Z46" t="s">
+      <c r="Y46" t="s">
         <v>126</v>
       </c>
     </row>
@@ -15968,7 +16593,7 @@
       <c r="G47" t="s">
         <v>341</v>
       </c>
-      <c r="Z47" t="s">
+      <c r="Y47" t="s">
         <v>438</v>
       </c>
     </row>
@@ -15976,7 +16601,7 @@
       <c r="G48" t="s">
         <v>210</v>
       </c>
-      <c r="Z48" t="s">
+      <c r="Y48" t="s">
         <v>212</v>
       </c>
     </row>
@@ -15984,7 +16609,7 @@
       <c r="G49" t="s">
         <v>319</v>
       </c>
-      <c r="Z49" t="s">
+      <c r="Y49" t="s">
         <v>76</v>
       </c>
     </row>
@@ -15992,7 +16617,7 @@
       <c r="G50" t="s">
         <v>338</v>
       </c>
-      <c r="Z50" t="s">
+      <c r="Y50" t="s">
         <v>575</v>
       </c>
     </row>
@@ -16000,7 +16625,7 @@
       <c r="G51" t="s">
         <v>367</v>
       </c>
-      <c r="Z51" t="s">
+      <c r="Y51" t="s">
         <v>127</v>
       </c>
     </row>
@@ -16008,7 +16633,7 @@
       <c r="G52" t="s">
         <v>301</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="Y52" t="s">
         <v>128</v>
       </c>
     </row>
@@ -16016,7 +16641,7 @@
       <c r="G53" t="s">
         <v>355</v>
       </c>
-      <c r="Z53" t="s">
+      <c r="Y53" t="s">
         <v>129</v>
       </c>
     </row>
@@ -16024,7 +16649,7 @@
       <c r="G54" t="s">
         <v>330</v>
       </c>
-      <c r="Z54" t="s">
+      <c r="Y54" t="s">
         <v>481</v>
       </c>
     </row>
@@ -16032,7 +16657,7 @@
       <c r="G55" t="s">
         <v>267</v>
       </c>
-      <c r="Z55" t="s">
+      <c r="Y55" t="s">
         <v>463</v>
       </c>
     </row>
@@ -16040,7 +16665,7 @@
       <c r="G56" t="s">
         <v>291</v>
       </c>
-      <c r="Z56" t="s">
+      <c r="Y56" t="s">
         <v>130</v>
       </c>
     </row>
@@ -16048,7 +16673,7 @@
       <c r="G57" t="s">
         <v>292</v>
       </c>
-      <c r="Z57" t="s">
+      <c r="Y57" t="s">
         <v>345</v>
       </c>
     </row>
@@ -16056,7 +16681,7 @@
       <c r="G58" t="s">
         <v>586</v>
       </c>
-      <c r="Z58" t="s">
+      <c r="Y58" t="s">
         <v>464</v>
       </c>
     </row>
@@ -16064,7 +16689,7 @@
       <c r="G59" t="s">
         <v>293</v>
       </c>
-      <c r="Z59" t="s">
+      <c r="Y59" t="s">
         <v>131</v>
       </c>
     </row>
@@ -16072,7 +16697,7 @@
       <c r="G60" t="s">
         <v>302</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="Y60" t="s">
         <v>132</v>
       </c>
     </row>
@@ -16080,7 +16705,7 @@
       <c r="G61" t="s">
         <v>311</v>
       </c>
-      <c r="Z61" t="s">
+      <c r="Y61" t="s">
         <v>133</v>
       </c>
     </row>
@@ -16088,7 +16713,7 @@
       <c r="G62" t="s">
         <v>336</v>
       </c>
-      <c r="Z62" t="s">
+      <c r="Y62" t="s">
         <v>134</v>
       </c>
     </row>
@@ -16096,7 +16721,7 @@
       <c r="G63" t="s">
         <v>308</v>
       </c>
-      <c r="Z63" t="s">
+      <c r="Y63" t="s">
         <v>135</v>
       </c>
     </row>
@@ -16104,7 +16729,7 @@
       <c r="G64" t="s">
         <v>309</v>
       </c>
-      <c r="Z64" t="s">
+      <c r="Y64" t="s">
         <v>136</v>
       </c>
     </row>
@@ -16112,7 +16737,7 @@
       <c r="G65" t="s">
         <v>368</v>
       </c>
-      <c r="Z65" t="s">
+      <c r="Y65" t="s">
         <v>137</v>
       </c>
     </row>
@@ -16120,7 +16745,7 @@
       <c r="G66" t="s">
         <v>369</v>
       </c>
-      <c r="Z66" t="s">
+      <c r="Y66" t="s">
         <v>439</v>
       </c>
     </row>
@@ -16128,7 +16753,7 @@
       <c r="G67" t="s">
         <v>344</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="Y67" t="s">
         <v>472</v>
       </c>
     </row>
@@ -16136,7 +16761,7 @@
       <c r="G68" t="s">
         <v>312</v>
       </c>
-      <c r="Z68" t="s">
+      <c r="Y68" t="s">
         <v>213</v>
       </c>
     </row>
@@ -16144,7 +16769,7 @@
       <c r="G69" t="s">
         <v>268</v>
       </c>
-      <c r="Z69" t="s">
+      <c r="Y69" t="s">
         <v>388</v>
       </c>
     </row>
@@ -16152,7 +16777,7 @@
       <c r="G70" t="s">
         <v>569</v>
       </c>
-      <c r="Z70" t="s">
+      <c r="Y70" t="s">
         <v>440</v>
       </c>
     </row>
@@ -16160,7 +16785,7 @@
       <c r="G71" t="s">
         <v>313</v>
       </c>
-      <c r="Z71" t="s">
+      <c r="Y71" t="s">
         <v>138</v>
       </c>
     </row>
@@ -16168,7 +16793,7 @@
       <c r="G72" t="s">
         <v>409</v>
       </c>
-      <c r="Z72" t="s">
+      <c r="Y72" t="s">
         <v>139</v>
       </c>
     </row>
@@ -16176,7 +16801,7 @@
       <c r="G73" t="s">
         <v>303</v>
       </c>
-      <c r="Z73" t="s">
+      <c r="Y73" t="s">
         <v>140</v>
       </c>
     </row>
@@ -16184,7 +16809,7 @@
       <c r="G74" t="s">
         <v>410</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="Y74" t="s">
         <v>141</v>
       </c>
     </row>
@@ -16192,7 +16817,7 @@
       <c r="G75" t="s">
         <v>261</v>
       </c>
-      <c r="Z75" t="s">
+      <c r="Y75" t="s">
         <v>196</v>
       </c>
     </row>
@@ -16200,7 +16825,7 @@
       <c r="G76" t="s">
         <v>550</v>
       </c>
-      <c r="Z76" t="s">
+      <c r="Y76" t="s">
         <v>197</v>
       </c>
     </row>
@@ -16208,7 +16833,7 @@
       <c r="G77" t="s">
         <v>343</v>
       </c>
-      <c r="Z77" t="s">
+      <c r="Y77" t="s">
         <v>452</v>
       </c>
     </row>
@@ -16216,7 +16841,7 @@
       <c r="G78" t="s">
         <v>279</v>
       </c>
-      <c r="Z78" t="s">
+      <c r="Y78" t="s">
         <v>465</v>
       </c>
     </row>
@@ -16224,7 +16849,7 @@
       <c r="G79" t="s">
         <v>285</v>
       </c>
-      <c r="Z79" t="s">
+      <c r="Y79" t="s">
         <v>142</v>
       </c>
     </row>
@@ -16232,7 +16857,7 @@
       <c r="G80" t="s">
         <v>290</v>
       </c>
-      <c r="Z80" t="s">
+      <c r="Y80" t="s">
         <v>143</v>
       </c>
     </row>
@@ -16240,7 +16865,7 @@
       <c r="G81" t="s">
         <v>428</v>
       </c>
-      <c r="Z81" t="s">
+      <c r="Y81" t="s">
         <v>144</v>
       </c>
     </row>
@@ -16248,7 +16873,7 @@
       <c r="G82" t="s">
         <v>331</v>
       </c>
-      <c r="Z82" t="s">
+      <c r="Y82" t="s">
         <v>535</v>
       </c>
     </row>
@@ -16256,7 +16881,7 @@
       <c r="G83" t="s">
         <v>269</v>
       </c>
-      <c r="Z83" t="s">
+      <c r="Y83" t="s">
         <v>145</v>
       </c>
     </row>
@@ -16264,7 +16889,7 @@
       <c r="G84" t="s">
         <v>280</v>
       </c>
-      <c r="Z84" t="s">
+      <c r="Y84" t="s">
         <v>146</v>
       </c>
     </row>
@@ -16272,7 +16897,7 @@
       <c r="G85" t="s">
         <v>286</v>
       </c>
-      <c r="Z85" t="s">
+      <c r="Y85" t="s">
         <v>198</v>
       </c>
     </row>
@@ -16280,7 +16905,7 @@
       <c r="G86" t="s">
         <v>275</v>
       </c>
-      <c r="Z86" t="s">
+      <c r="Y86" t="s">
         <v>504</v>
       </c>
     </row>
@@ -16288,7 +16913,7 @@
       <c r="G87" t="s">
         <v>570</v>
       </c>
-      <c r="Z87" t="s">
+      <c r="Y87" t="s">
         <v>199</v>
       </c>
     </row>
@@ -16296,7 +16921,7 @@
       <c r="G88" t="s">
         <v>270</v>
       </c>
-      <c r="Z88" t="s">
+      <c r="Y88" t="s">
         <v>453</v>
       </c>
     </row>
@@ -16304,7 +16929,7 @@
       <c r="G89" t="s">
         <v>287</v>
       </c>
-      <c r="Z89" t="s">
+      <c r="Y89" t="s">
         <v>200</v>
       </c>
     </row>
@@ -16312,7 +16937,7 @@
       <c r="G90" t="s">
         <v>271</v>
       </c>
-      <c r="Z90" t="s">
+      <c r="Y90" t="s">
         <v>201</v>
       </c>
     </row>
@@ -16320,7 +16945,7 @@
       <c r="G91" t="s">
         <v>272</v>
       </c>
-      <c r="Z91" t="s">
+      <c r="Y91" t="s">
         <v>214</v>
       </c>
     </row>
@@ -16328,7 +16953,7 @@
       <c r="G92" t="s">
         <v>304</v>
       </c>
-      <c r="Z92" t="s">
+      <c r="Y92" t="s">
         <v>147</v>
       </c>
     </row>
@@ -16336,7 +16961,7 @@
       <c r="G93" t="s">
         <v>310</v>
       </c>
-      <c r="Z93" t="s">
+      <c r="Y93" t="s">
         <v>202</v>
       </c>
     </row>
@@ -16344,7 +16969,7 @@
       <c r="G94" t="s">
         <v>294</v>
       </c>
-      <c r="Z94" t="s">
+      <c r="Y94" t="s">
         <v>441</v>
       </c>
     </row>
@@ -16352,7 +16977,7 @@
       <c r="G95" t="s">
         <v>339</v>
       </c>
-      <c r="Z95" t="s">
+      <c r="Y95" t="s">
         <v>442</v>
       </c>
     </row>
@@ -16360,7 +16985,7 @@
       <c r="G96" t="s">
         <v>276</v>
       </c>
-      <c r="Z96" t="s">
+      <c r="Y96" t="s">
         <v>203</v>
       </c>
     </row>
@@ -16368,167 +16993,167 @@
       <c r="G97" t="s">
         <v>277</v>
       </c>
-      <c r="Z97" t="s">
+      <c r="Y97" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="98">
-      <c r="Z98" t="s">
+      <c r="Y98" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="99">
-      <c r="Z99" t="s">
+      <c r="Y99" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="100">
-      <c r="Z100" t="s">
+      <c r="Y100" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="101">
-      <c r="Z101" t="s">
+      <c r="Y101" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="102">
-      <c r="Z102" t="s">
+      <c r="Y102" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="103">
-      <c r="Z103" t="s">
+      <c r="Y103" t="s">
         <v>551</v>
       </c>
     </row>
     <row r="104">
-      <c r="Z104" t="s">
+      <c r="Y104" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="105">
-      <c r="Z105" t="s">
+      <c r="Y105" t="s">
         <v>552</v>
       </c>
     </row>
     <row r="106">
-      <c r="Z106" t="s">
+      <c r="Y106" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="107">
-      <c r="Z107" t="s">
+      <c r="Y107" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="108">
-      <c r="Z108" t="s">
+      <c r="Y108" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="109">
-      <c r="Z109" t="s">
+      <c r="Y109" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="110">
-      <c r="Z110" t="s">
+      <c r="Y110" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="111">
-      <c r="Z111" t="s">
+      <c r="Y111" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="112">
-      <c r="Z112" t="s">
+      <c r="Y112" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="113">
-      <c r="Z113" t="s">
+      <c r="Y113" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="114">
-      <c r="Z114" t="s">
+      <c r="Y114" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="115">
-      <c r="Z115" t="s">
+      <c r="Y115" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="116">
-      <c r="Z116" t="s">
+      <c r="Y116" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="117">
-      <c r="Z117" t="s">
+      <c r="Y117" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="118">
-      <c r="Z118" t="s">
+      <c r="Y118" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="119">
-      <c r="Z119" t="s">
+      <c r="Y119" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="120">
-      <c r="Z120" t="s">
+      <c r="Y120" t="s">
         <v>443</v>
       </c>
     </row>
     <row r="121">
-      <c r="Z121" t="s">
+      <c r="Y121" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="122">
-      <c r="Z122" t="s">
+      <c r="Y122" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="123">
-      <c r="Z123" t="s">
+      <c r="Y123" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="124">
-      <c r="Z124" t="s">
+      <c r="Y124" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="125">
-      <c r="Z125" t="s">
+      <c r="Y125" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="126">
-      <c r="Z126" t="s">
+      <c r="Y126" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="127">
-      <c r="Z127" t="s">
+      <c r="Y127" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="128">
-      <c r="Z128" t="s">
+      <c r="Y128" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="129">
-      <c r="Z129" t="s">
+      <c r="Y129" t="s">
         <v>169</v>
       </c>
     </row>

--- a/examples/macros/artifact/script/FindNexialCommands.xlsx
+++ b/examples/macros/artifact/script/FindNexialCommands.xlsx
@@ -24,7 +24,7 @@
     <definedName name="csv">'#system'!$F$2:$F$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$97</definedName>
+    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
     <definedName name="excel">'#system'!$H$2:$H$14</definedName>
     <definedName name="external">'#system'!$I$2:$I$5</definedName>
     <definedName name="image">'#system'!$J$2:$J$7</definedName>
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
     <definedName name="step">'#system'!$X$2:$X$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$129</definedName>
+    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
     <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
     <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
@@ -73,7 +73,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11832" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13499" uniqueCount="594">
   <si>
     <t>description</t>
   </si>
@@ -1891,13 +1891,31 @@
   <si>
     <t>storeKeys(json,jsonpath,var)</t>
   </si>
+  <si>
+    <t>assertMultiSelect(locator)</t>
+  </si>
+  <si>
+    <t>assertSingleSelect(locator)</t>
+  </si>
+  <si>
+    <t>updateAttribute(locator,attrName,value)</t>
+  </si>
+  <si>
+    <t>assertElementNotPresent(name)</t>
+  </si>
+  <si>
+    <t>saveInfiniteDivsAsCsv(config,file)</t>
+  </si>
+  <si>
+    <t>saveInfiniteTableAsCsv(config,file)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="349" x14ac:knownFonts="1">
+  <fonts count="397" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4109,8 +4127,311 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="607">
+  <fills count="688">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7546,8 +7867,467 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="611">
+  <borders count="707">
     <border>
       <left/>
       <right/>
@@ -13727,6 +14507,984 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -13734,7 +15492,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="376">
+  <cellXfs count="424">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -14835,52 +16593,196 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="579" fontId="332" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="333" fillId="582" borderId="586" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="586" fillId="582" fontId="333" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="334" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="334" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="335" fillId="585" borderId="590" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="590" fillId="585" fontId="335" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="336" fillId="588" borderId="594" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="594" fillId="588" fontId="336" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="337" fillId="591" borderId="598" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="598" fillId="591" fontId="337" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="338" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="338" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="339" fillId="594" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="594" fontId="339" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="340" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="340" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="341" fillId="597" borderId="602" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="602" fillId="597" fontId="341" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="342" fillId="588" borderId="606" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="606" fillId="588" fontId="342" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="343" fillId="600" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="600" fontId="343" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="344" fillId="600" borderId="610" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="610" fillId="600" fontId="344" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="345" fillId="591" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="591" fontId="345" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="346" fillId="603" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="603" fontId="346" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="347" fillId="591" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="591" fontId="347" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="348" fillId="606" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="606" fontId="348" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="618" fillId="609" fontId="349" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="350" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="622" fillId="612" fontId="351" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="626" fillId="615" fontId="352" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="630" fillId="618" fontId="353" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="354" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="621" fontId="355" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="356" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="634" fillId="624" fontId="357" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="638" fillId="615" fontId="358" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="627" fontId="359" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="642" fillId="627" fontId="360" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="618" fontId="361" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="630" fontId="362" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="618" fontId="363" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="633" fontId="364" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="650" fillId="636" fontId="365" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="366" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="654" fillId="639" fontId="367" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="658" fillId="642" fontId="368" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="662" fillId="645" fontId="369" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="370" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="648" fontId="371" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="372" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="666" fillId="651" fontId="373" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="670" fillId="642" fontId="374" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="654" fontId="375" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="674" fillId="654" fontId="376" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="645" fontId="377" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="657" fontId="378" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="645" fontId="379" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="660" fontId="380" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="381" fillId="663" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="383" fillId="666" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="384" fillId="669" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="385" fillId="672" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="387" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="389" fillId="678" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="390" fillId="669" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="391" fillId="681" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="392" fillId="681" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="393" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="394" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="395" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="396" fillId="687" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -15235,7 +17137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE129"/>
+  <dimension ref="A1:AE134"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -15616,7 +17518,7 @@
         <v>432</v>
       </c>
       <c r="G5" t="s">
-        <v>335</v>
+        <v>591</v>
       </c>
       <c r="H5" t="s">
         <v>459</v>
@@ -15690,7 +17592,7 @@
         <v>544</v>
       </c>
       <c r="G6" t="s">
-        <v>387</v>
+        <v>335</v>
       </c>
       <c r="H6" t="s">
         <v>447</v>
@@ -15752,7 +17654,7 @@
         <v>223</v>
       </c>
       <c r="G7" t="s">
-        <v>365</v>
+        <v>387</v>
       </c>
       <c r="H7" t="s">
         <v>446</v>
@@ -15814,7 +17716,7 @@
         <v>317</v>
       </c>
       <c r="G8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="H8" t="s">
         <v>327</v>
@@ -15870,7 +17772,7 @@
         <v>31</v>
       </c>
       <c r="G9" t="s">
-        <v>305</v>
+        <v>366</v>
       </c>
       <c r="H9" t="s">
         <v>328</v>
@@ -15914,7 +17816,7 @@
         <v>314</v>
       </c>
       <c r="G10" t="s">
-        <v>351</v>
+        <v>305</v>
       </c>
       <c r="H10" t="s">
         <v>451</v>
@@ -15955,7 +17857,7 @@
         <v>254</v>
       </c>
       <c r="G11" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="H11" t="s">
         <v>321</v>
@@ -15993,7 +17895,7 @@
         <v>318</v>
       </c>
       <c r="G12" t="s">
-        <v>262</v>
+        <v>273</v>
       </c>
       <c r="H12" t="s">
         <v>322</v>
@@ -16031,7 +17933,7 @@
         <v>340</v>
       </c>
       <c r="G13" t="s">
-        <v>315</v>
+        <v>262</v>
       </c>
       <c r="H13" t="s">
         <v>323</v>
@@ -16066,7 +17968,7 @@
         <v>36</v>
       </c>
       <c r="G14" t="s">
-        <v>263</v>
+        <v>315</v>
       </c>
       <c r="H14" t="s">
         <v>324</v>
@@ -16101,7 +18003,7 @@
         <v>58</v>
       </c>
       <c r="G15" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="K15" t="s">
         <v>547</v>
@@ -16133,7 +18035,7 @@
         <v>384</v>
       </c>
       <c r="G16" t="s">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="K16" t="s">
         <v>80</v>
@@ -16165,7 +18067,7 @@
         <v>385</v>
       </c>
       <c r="G17" t="s">
-        <v>88</v>
+        <v>316</v>
       </c>
       <c r="K17" t="s">
         <v>81</v>
@@ -16191,7 +18093,7 @@
         <v>414</v>
       </c>
       <c r="G18" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="K18" t="s">
         <v>462</v>
@@ -16214,7 +18116,7 @@
         <v>59</v>
       </c>
       <c r="G19" t="s">
-        <v>295</v>
+        <v>89</v>
       </c>
       <c r="K19" t="s">
         <v>82</v>
@@ -16234,7 +18136,7 @@
         <v>60</v>
       </c>
       <c r="G20" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K20" t="s">
         <v>83</v>
@@ -16254,7 +18156,7 @@
         <v>255</v>
       </c>
       <c r="G21" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="K21" t="s">
         <v>379</v>
@@ -16274,7 +18176,7 @@
         <v>583</v>
       </c>
       <c r="G22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="K22" t="s">
         <v>469</v>
@@ -16294,7 +18196,7 @@
         <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
       <c r="K23" t="s">
         <v>43</v>
@@ -16314,13 +18216,13 @@
         <v>320</v>
       </c>
       <c r="G24" t="s">
-        <v>278</v>
+        <v>289</v>
       </c>
       <c r="K24" t="s">
         <v>391</v>
       </c>
       <c r="Y24" t="s">
-        <v>110</v>
+        <v>588</v>
       </c>
       <c r="AD24" t="s">
         <v>580</v>
@@ -16334,13 +18236,13 @@
         <v>62</v>
       </c>
       <c r="G25" t="s">
-        <v>75</v>
+        <v>278</v>
       </c>
       <c r="K25" t="s">
         <v>568</v>
       </c>
       <c r="Y25" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AD25" t="s">
         <v>581</v>
@@ -16354,13 +18256,13 @@
         <v>448</v>
       </c>
       <c r="G26" t="s">
-        <v>281</v>
+        <v>75</v>
       </c>
       <c r="K26" t="s">
         <v>84</v>
       </c>
       <c r="Y26" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AD26" t="s">
         <v>235</v>
@@ -16374,13 +18276,13 @@
         <v>224</v>
       </c>
       <c r="G27" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="K27" t="s">
         <v>433</v>
       </c>
       <c r="Y27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD27" t="s">
         <v>236</v>
@@ -16394,13 +18296,13 @@
         <v>225</v>
       </c>
       <c r="G28" t="s">
-        <v>282</v>
+        <v>265</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
       </c>
       <c r="Y28" t="s">
-        <v>326</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29">
@@ -16411,13 +18313,13 @@
         <v>467</v>
       </c>
       <c r="G29" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K29" t="s">
         <v>45</v>
       </c>
       <c r="Y29" t="s">
-        <v>114</v>
+        <v>326</v>
       </c>
     </row>
     <row r="30">
@@ -16428,10 +18330,10 @@
         <v>468</v>
       </c>
       <c r="G30" t="s">
-        <v>215</v>
+        <v>283</v>
       </c>
       <c r="Y30" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31">
@@ -16439,10 +18341,10 @@
         <v>415</v>
       </c>
       <c r="G31" t="s">
-        <v>274</v>
+        <v>215</v>
       </c>
       <c r="Y31" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="32">
@@ -16450,10 +18352,10 @@
         <v>63</v>
       </c>
       <c r="G32" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="Y32" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="33">
@@ -16461,10 +18363,10 @@
         <v>64</v>
       </c>
       <c r="G33" t="s">
-        <v>549</v>
+        <v>284</v>
       </c>
       <c r="Y33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34">
@@ -16472,10 +18374,10 @@
         <v>65</v>
       </c>
       <c r="G34" t="s">
-        <v>259</v>
+        <v>549</v>
       </c>
       <c r="Y34" t="s">
-        <v>119</v>
+        <v>589</v>
       </c>
     </row>
     <row r="35">
@@ -16483,10 +18385,10 @@
         <v>66</v>
       </c>
       <c r="G35" t="s">
-        <v>329</v>
+        <v>259</v>
       </c>
       <c r="Y35" t="s">
-        <v>209</v>
+        <v>118</v>
       </c>
     </row>
     <row r="36">
@@ -16494,10 +18396,10 @@
         <v>67</v>
       </c>
       <c r="G36" t="s">
-        <v>306</v>
+        <v>329</v>
       </c>
       <c r="Y36" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="37">
@@ -16505,10 +18407,10 @@
         <v>68</v>
       </c>
       <c r="G37" t="s">
-        <v>260</v>
+        <v>306</v>
       </c>
       <c r="Y37" t="s">
-        <v>337</v>
+        <v>209</v>
       </c>
     </row>
     <row r="38">
@@ -16516,10 +18418,10 @@
         <v>69</v>
       </c>
       <c r="G38" t="s">
-        <v>307</v>
+        <v>260</v>
       </c>
       <c r="Y38" t="s">
-        <v>437</v>
+        <v>120</v>
       </c>
     </row>
     <row r="39">
@@ -16527,633 +18429,661 @@
         <v>70</v>
       </c>
       <c r="G39" t="s">
-        <v>266</v>
+        <v>307</v>
       </c>
       <c r="Y39" t="s">
-        <v>574</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40">
       <c r="G40" t="s">
-        <v>77</v>
+        <v>266</v>
       </c>
       <c r="Y40" t="s">
-        <v>392</v>
+        <v>437</v>
       </c>
     </row>
     <row r="41">
       <c r="G41" t="s">
-        <v>211</v>
+        <v>77</v>
       </c>
       <c r="Y41" t="s">
-        <v>121</v>
+        <v>574</v>
       </c>
     </row>
     <row r="42">
       <c r="G42" t="s">
-        <v>585</v>
+        <v>211</v>
       </c>
       <c r="Y42" t="s">
-        <v>122</v>
+        <v>392</v>
       </c>
     </row>
     <row r="43">
       <c r="G43" t="s">
-        <v>288</v>
+        <v>585</v>
       </c>
       <c r="Y43" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="44">
       <c r="G44" t="s">
-        <v>299</v>
+        <v>288</v>
       </c>
       <c r="Y44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45">
       <c r="G45" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y45" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="46">
       <c r="G46" t="s">
-        <v>342</v>
+        <v>300</v>
       </c>
       <c r="Y46" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="47">
       <c r="G47" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Y47" t="s">
-        <v>438</v>
+        <v>125</v>
       </c>
     </row>
     <row r="48">
       <c r="G48" t="s">
-        <v>210</v>
+        <v>341</v>
       </c>
       <c r="Y48" t="s">
-        <v>212</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49">
       <c r="G49" t="s">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="Y49" t="s">
-        <v>76</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50">
       <c r="G50" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="Y50" t="s">
-        <v>575</v>
+        <v>212</v>
       </c>
     </row>
     <row r="51">
       <c r="G51" t="s">
-        <v>367</v>
+        <v>338</v>
       </c>
       <c r="Y51" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
     </row>
     <row r="52">
       <c r="G52" t="s">
-        <v>301</v>
+        <v>367</v>
       </c>
       <c r="Y52" t="s">
-        <v>128</v>
+        <v>575</v>
       </c>
     </row>
     <row r="53">
       <c r="G53" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="Y53" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54">
       <c r="G54" t="s">
-        <v>330</v>
+        <v>355</v>
       </c>
       <c r="Y54" t="s">
-        <v>481</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55">
       <c r="G55" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="Y55" t="s">
-        <v>463</v>
+        <v>129</v>
       </c>
     </row>
     <row r="56">
       <c r="G56" t="s">
-        <v>291</v>
+        <v>267</v>
       </c>
       <c r="Y56" t="s">
-        <v>130</v>
+        <v>481</v>
       </c>
     </row>
     <row r="57">
       <c r="G57" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="Y57" t="s">
-        <v>345</v>
+        <v>463</v>
       </c>
     </row>
     <row r="58">
       <c r="G58" t="s">
-        <v>586</v>
+        <v>292</v>
       </c>
       <c r="Y58" t="s">
-        <v>464</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59">
       <c r="G59" t="s">
-        <v>293</v>
+        <v>586</v>
       </c>
       <c r="Y59" t="s">
-        <v>131</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60">
       <c r="G60" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="Y60" t="s">
-        <v>132</v>
+        <v>464</v>
       </c>
     </row>
     <row r="61">
       <c r="G61" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="Y61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62">
       <c r="G62" t="s">
-        <v>336</v>
+        <v>311</v>
       </c>
       <c r="Y62" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63">
       <c r="G63" t="s">
-        <v>308</v>
+        <v>336</v>
       </c>
       <c r="Y63" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64">
       <c r="G64" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="Y64" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="65">
       <c r="G65" t="s">
-        <v>368</v>
+        <v>309</v>
       </c>
       <c r="Y65" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="66">
       <c r="G66" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="Y66" t="s">
-        <v>439</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67">
       <c r="G67" t="s">
-        <v>344</v>
+        <v>369</v>
       </c>
       <c r="Y67" t="s">
-        <v>472</v>
+        <v>137</v>
       </c>
     </row>
     <row r="68">
       <c r="G68" t="s">
-        <v>312</v>
+        <v>344</v>
       </c>
       <c r="Y68" t="s">
-        <v>213</v>
+        <v>439</v>
       </c>
     </row>
     <row r="69">
       <c r="G69" t="s">
-        <v>268</v>
+        <v>312</v>
       </c>
       <c r="Y69" t="s">
-        <v>388</v>
+        <v>472</v>
       </c>
     </row>
     <row r="70">
       <c r="G70" t="s">
-        <v>569</v>
+        <v>268</v>
       </c>
       <c r="Y70" t="s">
-        <v>440</v>
+        <v>213</v>
       </c>
     </row>
     <row r="71">
       <c r="G71" t="s">
-        <v>313</v>
+        <v>569</v>
       </c>
       <c r="Y71" t="s">
-        <v>138</v>
+        <v>388</v>
       </c>
     </row>
     <row r="72">
       <c r="G72" t="s">
-        <v>409</v>
+        <v>313</v>
       </c>
       <c r="Y72" t="s">
-        <v>139</v>
+        <v>440</v>
       </c>
     </row>
     <row r="73">
       <c r="G73" t="s">
-        <v>303</v>
+        <v>409</v>
       </c>
       <c r="Y73" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="74">
       <c r="G74" t="s">
-        <v>410</v>
+        <v>303</v>
       </c>
       <c r="Y74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="75">
       <c r="G75" t="s">
-        <v>261</v>
+        <v>410</v>
       </c>
       <c r="Y75" t="s">
-        <v>196</v>
+        <v>140</v>
       </c>
     </row>
     <row r="76">
       <c r="G76" t="s">
-        <v>550</v>
+        <v>261</v>
       </c>
       <c r="Y76" t="s">
-        <v>197</v>
+        <v>141</v>
       </c>
     </row>
     <row r="77">
       <c r="G77" t="s">
-        <v>343</v>
+        <v>550</v>
       </c>
       <c r="Y77" t="s">
-        <v>452</v>
+        <v>196</v>
       </c>
     </row>
     <row r="78">
       <c r="G78" t="s">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="Y78" t="s">
-        <v>465</v>
+        <v>197</v>
       </c>
     </row>
     <row r="79">
       <c r="G79" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="Y79" t="s">
-        <v>142</v>
+        <v>452</v>
       </c>
     </row>
     <row r="80">
       <c r="G80" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="Y80" t="s">
-        <v>143</v>
+        <v>465</v>
       </c>
     </row>
     <row r="81">
       <c r="G81" t="s">
-        <v>428</v>
+        <v>290</v>
       </c>
       <c r="Y81" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="82">
       <c r="G82" t="s">
-        <v>331</v>
+        <v>428</v>
       </c>
       <c r="Y82" t="s">
-        <v>535</v>
+        <v>143</v>
       </c>
     </row>
     <row r="83">
       <c r="G83" t="s">
-        <v>269</v>
+        <v>331</v>
       </c>
       <c r="Y83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="84">
       <c r="G84" t="s">
-        <v>280</v>
+        <v>269</v>
       </c>
       <c r="Y84" t="s">
-        <v>146</v>
+        <v>535</v>
       </c>
     </row>
     <row r="85">
       <c r="G85" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="Y85" t="s">
-        <v>198</v>
+        <v>145</v>
       </c>
     </row>
     <row r="86">
       <c r="G86" t="s">
-        <v>275</v>
+        <v>286</v>
       </c>
       <c r="Y86" t="s">
-        <v>504</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87">
       <c r="G87" t="s">
-        <v>570</v>
+        <v>275</v>
       </c>
       <c r="Y87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="88">
       <c r="G88" t="s">
-        <v>270</v>
+        <v>570</v>
       </c>
       <c r="Y88" t="s">
-        <v>453</v>
+        <v>504</v>
       </c>
     </row>
     <row r="89">
       <c r="G89" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="Y89" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="90">
       <c r="G90" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="Y90" t="s">
-        <v>201</v>
+        <v>453</v>
       </c>
     </row>
     <row r="91">
       <c r="G91" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="Y91" t="s">
-        <v>214</v>
+        <v>200</v>
       </c>
     </row>
     <row r="92">
       <c r="G92" t="s">
-        <v>304</v>
+        <v>272</v>
       </c>
       <c r="Y92" t="s">
-        <v>147</v>
+        <v>201</v>
       </c>
     </row>
     <row r="93">
       <c r="G93" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="Y93" t="s">
-        <v>202</v>
+        <v>592</v>
       </c>
     </row>
     <row r="94">
       <c r="G94" t="s">
-        <v>294</v>
+        <v>310</v>
       </c>
       <c r="Y94" t="s">
-        <v>441</v>
+        <v>593</v>
       </c>
     </row>
     <row r="95">
       <c r="G95" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="Y95" t="s">
-        <v>442</v>
+        <v>214</v>
       </c>
     </row>
     <row r="96">
       <c r="G96" t="s">
-        <v>276</v>
+        <v>339</v>
       </c>
       <c r="Y96" t="s">
-        <v>203</v>
+        <v>147</v>
       </c>
     </row>
     <row r="97">
       <c r="G97" t="s">
+        <v>276</v>
+      </c>
+      <c r="Y97" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="G98" t="s">
         <v>277</v>
       </c>
-      <c r="Y97" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="98">
       <c r="Y98" t="s">
-        <v>205</v>
+        <v>441</v>
       </c>
     </row>
     <row r="99">
       <c r="Y99" t="s">
-        <v>206</v>
+        <v>442</v>
       </c>
     </row>
     <row r="100">
       <c r="Y100" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
     </row>
     <row r="101">
       <c r="Y101" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102">
       <c r="Y102" t="s">
-        <v>548</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103">
       <c r="Y103" t="s">
-        <v>551</v>
+        <v>206</v>
       </c>
     </row>
     <row r="104">
       <c r="Y104" t="s">
-        <v>148</v>
+        <v>222</v>
       </c>
     </row>
     <row r="105">
       <c r="Y105" t="s">
-        <v>552</v>
+        <v>207</v>
       </c>
     </row>
     <row r="106">
       <c r="Y106" t="s">
-        <v>382</v>
+        <v>548</v>
       </c>
     </row>
     <row r="107">
       <c r="Y107" t="s">
-        <v>149</v>
+        <v>551</v>
       </c>
     </row>
     <row r="108">
       <c r="Y108" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="109">
       <c r="Y109" t="s">
-        <v>151</v>
+        <v>552</v>
       </c>
     </row>
     <row r="110">
       <c r="Y110" t="s">
-        <v>152</v>
+        <v>382</v>
       </c>
     </row>
     <row r="111">
       <c r="Y111" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="112">
       <c r="Y112" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="113">
       <c r="Y113" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="114">
       <c r="Y114" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115">
       <c r="Y115" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="116">
       <c r="Y116" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="117">
       <c r="Y117" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="118">
       <c r="Y118" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="119">
       <c r="Y119" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120">
       <c r="Y120" t="s">
-        <v>443</v>
+        <v>158</v>
       </c>
     </row>
     <row r="121">
       <c r="Y121" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="122">
       <c r="Y122" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="123">
       <c r="Y123" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="124">
       <c r="Y124" t="s">
-        <v>165</v>
+        <v>443</v>
       </c>
     </row>
     <row r="125">
       <c r="Y125" t="s">
-        <v>46</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126">
       <c r="Y126" t="s">
-        <v>166</v>
+        <v>590</v>
       </c>
     </row>
     <row r="127">
       <c r="Y127" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="128">
       <c r="Y128" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="129">
       <c r="Y129" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="Y130" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="Y131" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="Y132" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="Y133" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="Y134" t="s">
         <v>169</v>
       </c>
     </row>

--- a/examples/macros/artifact/script/FindNexialCommands.xlsx
+++ b/examples/macros/artifact/script/FindNexialCommands.xlsx
@@ -20,40 +20,41 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$E$2:$E$39</definedName>
-    <definedName name="csv">'#system'!$F$2:$F$6</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
-    <definedName name="desktop">'#system'!$G$2:$G$98</definedName>
-    <definedName name="excel">'#system'!$H$2:$H$14</definedName>
-    <definedName name="external">'#system'!$I$2:$I$5</definedName>
-    <definedName name="image">'#system'!$J$2:$J$7</definedName>
-    <definedName name="io">'#system'!$K$2:$K$29</definedName>
-    <definedName name="jms">'#system'!$L$2:$L$4</definedName>
-    <definedName name="json">'#system'!$M$2:$M$18</definedName>
-    <definedName name="macro">'#system'!$O$2:$O$4</definedName>
-    <definedName name="mail">'#system'!$P$2:$P$2</definedName>
+    <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
+    <definedName name="excel">'#system'!$I$2:$I$14</definedName>
+    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="image">'#system'!$K$2:$K$7</definedName>
+    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="jms">'#system'!$M$2:$M$4</definedName>
+    <definedName name="json">'#system'!$N$2:$N$18</definedName>
+    <definedName name="macro">'#system'!$P$2:$P$4</definedName>
+    <definedName name="mail">'#system'!$Q$2:$Q$2</definedName>
     <definedName name="math">'#system'!$K$2:$K$13</definedName>
     <definedName name="mq">'#system'!$J$2:$J$3</definedName>
     <definedName name="nextgen">'#system'!$K$2:$K$28</definedName>
-    <definedName name="number">'#system'!$Q$2:$Q$16</definedName>
-    <definedName name="pdf">'#system'!$R$2:$R$16</definedName>
-    <definedName name="rdbms">'#system'!$S$2:$S$7</definedName>
-    <definedName name="redis">'#system'!$T$2:$T$10</definedName>
-    <definedName name="sms">'#system'!$U$2:$U$2</definedName>
-    <definedName name="sound">'#system'!$V$2:$V$5</definedName>
-    <definedName name="ssh">'#system'!$W$2:$W$9</definedName>
-    <definedName name="step">'#system'!$X$2:$X$4</definedName>
-    <definedName name="target">'#system'!$A$2:$A$30</definedName>
-    <definedName name="web">'#system'!$Y$2:$Y$134</definedName>
-    <definedName name="webalert">'#system'!$Z$2:$Z$8</definedName>
-    <definedName name="webcookie">'#system'!$AA$2:$AA$8</definedName>
-    <definedName name="ws">'#system'!$AB$2:$AB$17</definedName>
-    <definedName name="ws.async">'#system'!$AC$2:$AC$8</definedName>
-    <definedName name="xml">'#system'!$AD$2:$AD$27</definedName>
+    <definedName name="number">'#system'!$R$2:$R$16</definedName>
+    <definedName name="pdf">'#system'!$S$2:$S$16</definedName>
+    <definedName name="rdbms">'#system'!$T$2:$T$7</definedName>
+    <definedName name="redis">'#system'!$U$2:$U$10</definedName>
+    <definedName name="sms">'#system'!$V$2:$V$2</definedName>
+    <definedName name="sound">'#system'!$W$2:$W$5</definedName>
+    <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
+    <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
+    <definedName name="target">'#system'!$A$2:$A$31</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
+    <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
+    <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
+    <definedName name="ws.async">'#system'!$AD$2:$AD$8</definedName>
+    <definedName name="xml">'#system'!$AE$2:$AE$27</definedName>
     <definedName name="aws.sqs">'#system'!$D$2:$D$6</definedName>
-    <definedName name="localdb">'#system'!$N$2:$N$12</definedName>
+    <definedName name="localdb">'#system'!$O$2:$O$12</definedName>
     <definedName name="text">'#system'!$Y$2:$Y$2</definedName>
+    <definedName name="aws.vision">'#system'!$E$2:$E$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -73,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13499" uniqueCount="594">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14621" uniqueCount="600">
   <si>
     <t>description</t>
   </si>
@@ -1909,13 +1910,31 @@
   <si>
     <t>saveInfiniteTableAsCsv(config,file)</t>
   </si>
+  <si>
+    <t>aws.vision</t>
+  </si>
+  <si>
+    <t>saveText(profile,image,var)</t>
+  </si>
+  <si>
+    <t>screenshot(file,locator)</t>
+  </si>
+  <si>
+    <t>assertNotContain(text,substring)</t>
+  </si>
+  <si>
+    <t>assertAttributeNotContain(locator,attrName,contains)</t>
+  </si>
+  <si>
+    <t>assertTextNotContain(locator,text)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="397" x14ac:knownFonts="1">
+  <fonts count="429" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4430,8 +4449,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="688">
+  <fills count="742">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8326,8 +8547,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="707">
+  <borders count="771">
     <border>
       <left/>
       <right/>
@@ -15485,6 +16012,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -15492,7 +16671,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="424">
+  <cellXfs count="456">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -16737,52 +17916,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="660" fontId="380" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="381" fillId="663" borderId="682" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="682" fillId="663" fontId="381" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="382" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="382" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="383" fillId="666" borderId="686" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="686" fillId="666" fontId="383" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="384" fillId="669" borderId="690" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="690" fillId="669" fontId="384" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="385" fillId="672" borderId="694" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="694" fillId="672" fontId="385" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="386" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="386" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="387" fillId="675" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="675" fontId="387" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="388" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="388" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="389" fillId="678" borderId="698" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="698" fillId="678" fontId="389" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="390" fillId="669" borderId="702" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="702" fillId="669" fontId="390" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="391" fillId="681" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="706" fillId="681" fontId="391" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="392" fillId="681" borderId="706" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="706" fillId="681" fontId="392" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="393" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="672" fontId="393" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="394" fillId="684" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="684" fontId="394" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="395" fillId="672" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="672" fontId="395" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="396" fillId="687" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="687" fontId="396" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="714" fillId="690" fontId="397" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="398" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="718" fillId="693" fontId="399" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="722" fillId="696" fontId="400" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="726" fillId="699" fontId="401" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="402" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="702" fontId="403" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="404" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="730" fillId="705" fontId="405" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="734" fillId="696" fontId="406" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="708" fontId="407" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="738" fillId="708" fontId="408" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="699" fontId="409" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="711" fontId="410" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="699" fontId="411" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="714" fontId="412" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="413" fillId="717" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="415" fillId="720" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="416" fillId="723" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="417" fillId="726" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="419" fillId="729" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="421" fillId="732" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="422" fillId="723" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="423" fillId="735" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="424" fillId="735" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="425" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="426" fillId="738" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="427" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="428" fillId="741" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -17137,7 +18412,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE134"/>
+  <dimension ref="A1:AF135"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -17162,81 +18437,84 @@
         <v>527</v>
       </c>
       <c r="E1" t="s">
+        <v>594</v>
+      </c>
+      <c r="F1" t="s">
         <v>13</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>50</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>21</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>22</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>23</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>346</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>332</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>24</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>553</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>475</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>195</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>51</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>238</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>52</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>395</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>411</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>412</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>356</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>396</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>53</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>54</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>55</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>56</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>413</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>226</v>
       </c>
     </row>
@@ -17254,81 +18532,84 @@
         <v>528</v>
       </c>
       <c r="E2" t="s">
+        <v>595</v>
+      </c>
+      <c r="F2" t="s">
         <v>57</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>71</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>73</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>449</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>78</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>460</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>314</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>383</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>434</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>554</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>478</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>416</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>429</v>
       </c>
-      <c r="R2" t="s">
+      <c r="S2" t="s">
         <v>252</v>
       </c>
-      <c r="S2" t="s">
+      <c r="T2" t="s">
         <v>216</v>
       </c>
-      <c r="T2" t="s">
+      <c r="U2" t="s">
         <v>397</v>
       </c>
-      <c r="U2" t="s">
+      <c r="V2" t="s">
         <v>418</v>
       </c>
-      <c r="V2" t="s">
+      <c r="W2" t="s">
         <v>419</v>
       </c>
-      <c r="W2" t="s">
+      <c r="X2" t="s">
         <v>380</v>
       </c>
-      <c r="X2" t="s">
+      <c r="Y2" t="s">
         <v>406</v>
       </c>
-      <c r="Y2" t="s">
+      <c r="Z2" t="s">
         <v>96</v>
       </c>
-      <c r="Z2" t="s">
+      <c r="AA2" t="s">
         <v>170</v>
       </c>
-      <c r="AA2" t="s">
+      <c r="AB2" t="s">
         <v>175</v>
       </c>
-      <c r="AB2" t="s">
+      <c r="AC2" t="s">
         <v>182</v>
       </c>
-      <c r="AC2" t="s">
+      <c r="AD2" t="s">
         <v>431</v>
       </c>
-      <c r="AD2" t="s">
+      <c r="AE2" t="s">
         <v>536</v>
       </c>
     </row>
@@ -17345,76 +18626,76 @@
       <c r="D3" t="s">
         <v>567</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>457</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>364</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>87</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>48</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>476</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>348</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>340</v>
       </c>
-      <c r="L3" t="s">
+      <c r="M3" t="s">
         <v>333</v>
       </c>
-      <c r="M3" t="s">
+      <c r="N3" t="s">
         <v>85</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>555</v>
       </c>
-      <c r="O3" t="s">
+      <c r="P3" t="s">
         <v>479</v>
       </c>
-      <c r="Q3" t="s">
+      <c r="R3" t="s">
         <v>430</v>
       </c>
-      <c r="R3" t="s">
+      <c r="S3" t="s">
         <v>239</v>
       </c>
-      <c r="S3" t="s">
+      <c r="T3" t="s">
         <v>217</v>
       </c>
-      <c r="T3" t="s">
+      <c r="U3" t="s">
         <v>398</v>
       </c>
-      <c r="V3" t="s">
+      <c r="W3" t="s">
         <v>420</v>
       </c>
-      <c r="W3" t="s">
+      <c r="X3" t="s">
         <v>381</v>
       </c>
-      <c r="X3" t="s">
+      <c r="Y3" t="s">
         <v>407</v>
       </c>
-      <c r="Y3" t="s">
+      <c r="Z3" t="s">
         <v>97</v>
       </c>
-      <c r="Z3" t="s">
+      <c r="AA3" t="s">
         <v>171</v>
       </c>
-      <c r="AA3" t="s">
+      <c r="AB3" t="s">
         <v>176</v>
       </c>
-      <c r="AB3" t="s">
+      <c r="AC3" t="s">
         <v>363</v>
       </c>
-      <c r="AC3" t="s">
+      <c r="AD3" t="s">
         <v>183</v>
       </c>
-      <c r="AD3" t="s">
+      <c r="AE3" t="s">
         <v>227</v>
       </c>
     </row>
@@ -17428,82 +18709,82 @@
       <c r="D4" t="s">
         <v>529</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>15</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>72</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>386</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>450</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>477</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>349</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>237</v>
       </c>
-      <c r="L4" t="s">
+      <c r="M4" t="s">
         <v>334</v>
       </c>
-      <c r="M4" t="s">
+      <c r="N4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>556</v>
       </c>
-      <c r="O4" t="s">
+      <c r="P4" t="s">
         <v>480</v>
       </c>
-      <c r="Q4" t="s">
+      <c r="R4" t="s">
         <v>26</v>
       </c>
-      <c r="R4" t="s">
+      <c r="S4" t="s">
         <v>240</v>
       </c>
-      <c r="S4" t="s">
+      <c r="T4" t="s">
         <v>218</v>
       </c>
-      <c r="T4" t="s">
+      <c r="U4" t="s">
         <v>399</v>
       </c>
-      <c r="V4" t="s">
+      <c r="W4" t="s">
         <v>421</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>357</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>408</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>353</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>172</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>177</v>
       </c>
-      <c r="AB4" t="s">
+      <c r="AC4" t="s">
         <v>183</v>
       </c>
-      <c r="AC4" t="s">
+      <c r="AD4" t="s">
         <v>423</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AE4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>594</v>
       </c>
       <c r="B5" t="s">
         <v>374</v>
@@ -17511,73 +18792,73 @@
       <c r="D5" t="s">
         <v>530</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>458</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>432</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>591</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>459</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>571</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>350</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>461</v>
       </c>
-      <c r="M5" t="s">
+      <c r="N5" t="s">
         <v>86</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>566</v>
       </c>
-      <c r="Q5" t="s">
+      <c r="R5" t="s">
         <v>29</v>
       </c>
-      <c r="R5" t="s">
+      <c r="S5" t="s">
         <v>241</v>
       </c>
-      <c r="S5" t="s">
+      <c r="T5" t="s">
         <v>219</v>
       </c>
-      <c r="T5" t="s">
+      <c r="U5" t="s">
         <v>400</v>
       </c>
-      <c r="V5" t="s">
+      <c r="W5" t="s">
         <v>422</v>
       </c>
-      <c r="W5" t="s">
+      <c r="X5" t="s">
         <v>358</v>
       </c>
-      <c r="Y5" t="s">
-        <v>354</v>
-      </c>
       <c r="Z5" t="s">
+        <v>598</v>
+      </c>
+      <c r="AA5" t="s">
         <v>173</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AB5" t="s">
         <v>178</v>
       </c>
-      <c r="AB5" t="s">
+      <c r="AC5" t="s">
         <v>184</v>
       </c>
-      <c r="AC5" t="s">
+      <c r="AD5" t="s">
         <v>424</v>
       </c>
-      <c r="AD5" t="s">
+      <c r="AE5" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>375</v>
@@ -17585,1505 +18866,1513 @@
       <c r="D6" t="s">
         <v>531</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>27</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>544</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>335</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>447</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>347</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>71</v>
       </c>
-      <c r="M6" t="s">
+      <c r="N6" t="s">
         <v>28</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>560</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="R6" t="s">
         <v>30</v>
       </c>
-      <c r="R6" t="s">
+      <c r="S6" t="s">
         <v>242</v>
       </c>
-      <c r="S6" t="s">
+      <c r="T6" t="s">
         <v>390</v>
       </c>
-      <c r="T6" t="s">
+      <c r="U6" t="s">
         <v>401</v>
       </c>
-      <c r="W6" t="s">
+      <c r="X6" t="s">
         <v>360</v>
       </c>
-      <c r="Y6" t="s">
+      <c r="Z6" t="s">
         <v>98</v>
       </c>
-      <c r="Z6" t="s">
+      <c r="AA6" t="s">
         <v>444</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AB6" t="s">
         <v>179</v>
       </c>
-      <c r="AB6" t="s">
+      <c r="AC6" t="s">
         <v>185</v>
       </c>
-      <c r="AC6" t="s">
+      <c r="AD6" t="s">
         <v>425</v>
       </c>
-      <c r="AD6" t="s">
+      <c r="AE6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
         <v>376</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>223</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>387</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>446</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>572</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>16</v>
       </c>
-      <c r="M7" t="s">
+      <c r="N7" t="s">
         <v>314</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>561</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="R7" t="s">
         <v>32</v>
       </c>
-      <c r="R7" t="s">
+      <c r="S7" t="s">
         <v>243</v>
       </c>
-      <c r="S7" t="s">
+      <c r="T7" t="s">
         <v>417</v>
       </c>
-      <c r="T7" t="s">
+      <c r="U7" t="s">
         <v>402</v>
       </c>
-      <c r="W7" t="s">
+      <c r="X7" t="s">
         <v>359</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Z7" t="s">
         <v>99</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="AA7" t="s">
         <v>445</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AB7" t="s">
         <v>180</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AC7" t="s">
         <v>186</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AD7" t="s">
         <v>426</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AE7" t="s">
         <v>576</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>377</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>317</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>365</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>327</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>545</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>33</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>562</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="R8" t="s">
         <v>90</v>
       </c>
-      <c r="R8" t="s">
+      <c r="S8" t="s">
         <v>244</v>
       </c>
-      <c r="T8" t="s">
+      <c r="U8" t="s">
         <v>403</v>
       </c>
-      <c r="W8" t="s">
+      <c r="X8" t="s">
         <v>361</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Z8" t="s">
         <v>100</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="AA8" t="s">
         <v>174</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AB8" t="s">
         <v>181</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AC8" t="s">
         <v>187</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AD8" t="s">
         <v>427</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AE8" t="s">
         <v>577</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
         <v>378</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>31</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>366</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>328</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>79</v>
       </c>
-      <c r="M9" t="s">
+      <c r="N9" t="s">
         <v>34</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>565</v>
       </c>
-      <c r="Q9" t="s">
+      <c r="R9" t="s">
         <v>91</v>
       </c>
-      <c r="R9" t="s">
+      <c r="S9" t="s">
         <v>245</v>
       </c>
-      <c r="T9" t="s">
+      <c r="U9" t="s">
         <v>404</v>
       </c>
-      <c r="W9" t="s">
+      <c r="X9" t="s">
         <v>362</v>
       </c>
-      <c r="Y9" t="s">
+      <c r="Z9" t="s">
         <v>208</v>
       </c>
-      <c r="AB9" t="s">
+      <c r="AC9" t="s">
         <v>188</v>
       </c>
-      <c r="AD9" t="s">
+      <c r="AE9" t="s">
         <v>578</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>346</v>
-      </c>
-      <c r="E10" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" t="s">
         <v>314</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>305</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>451</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>37</v>
       </c>
-      <c r="M10" t="s">
+      <c r="N10" t="s">
         <v>35</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>557</v>
       </c>
-      <c r="Q10" t="s">
+      <c r="R10" t="s">
         <v>436</v>
       </c>
-      <c r="R10" t="s">
+      <c r="S10" t="s">
         <v>246</v>
       </c>
-      <c r="T10" t="s">
+      <c r="U10" t="s">
         <v>405</v>
       </c>
-      <c r="Y10" t="s">
+      <c r="Z10" t="s">
         <v>256</v>
       </c>
-      <c r="AB10" t="s">
+      <c r="AC10" t="s">
         <v>189</v>
       </c>
-      <c r="AD10" t="s">
+      <c r="AE10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" t="s">
-        <v>254</v>
-      </c>
-      <c r="G11" t="s">
+        <v>346</v>
+      </c>
+      <c r="F11" t="s">
+        <v>597</v>
+      </c>
+      <c r="H11" t="s">
         <v>351</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>321</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>546</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>470</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>558</v>
       </c>
-      <c r="Q11" t="s">
+      <c r="R11" t="s">
         <v>92</v>
       </c>
-      <c r="R11" t="s">
+      <c r="S11" t="s">
         <v>247</v>
       </c>
-      <c r="Y11" t="s">
+      <c r="Z11" t="s">
         <v>257</v>
       </c>
-      <c r="AB11" t="s">
+      <c r="AC11" t="s">
         <v>258</v>
       </c>
-      <c r="AD11" t="s">
+      <c r="AE11" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>332</v>
-      </c>
-      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s">
         <v>318</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>273</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>322</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>389</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>573</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>559</v>
       </c>
-      <c r="Q12" t="s">
+      <c r="R12" t="s">
         <v>40</v>
       </c>
-      <c r="R12" t="s">
+      <c r="S12" t="s">
         <v>248</v>
       </c>
-      <c r="Y12" t="s">
+      <c r="Z12" t="s">
         <v>101</v>
       </c>
-      <c r="AB12" t="s">
+      <c r="AC12" t="s">
         <v>190</v>
       </c>
-      <c r="AD12" t="s">
+      <c r="AE12" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E13" t="s">
+        <v>332</v>
+      </c>
+      <c r="F13" t="s">
         <v>340</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>262</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>323</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>17</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>435</v>
       </c>
-      <c r="Q13" t="s">
+      <c r="R13" t="s">
         <v>93</v>
       </c>
-      <c r="R13" t="s">
+      <c r="S13" t="s">
         <v>253</v>
       </c>
-      <c r="Y13" t="s">
+      <c r="Z13" t="s">
         <v>325</v>
       </c>
-      <c r="AB13" t="s">
+      <c r="AC13" t="s">
         <v>191</v>
       </c>
-      <c r="AD13" t="s">
+      <c r="AE13" t="s">
         <v>473</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>553</v>
-      </c>
-      <c r="E14" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" t="s">
         <v>36</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>315</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>324</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>41</v>
       </c>
-      <c r="M14" t="s">
+      <c r="N14" t="s">
         <v>471</v>
       </c>
-      <c r="Q14" t="s">
+      <c r="R14" t="s">
         <v>94</v>
       </c>
-      <c r="R14" t="s">
+      <c r="S14" t="s">
         <v>249</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="Z14" t="s">
         <v>102</v>
       </c>
-      <c r="AB14" t="s">
+      <c r="AC14" t="s">
         <v>192</v>
       </c>
-      <c r="AD14" t="s">
+      <c r="AE14" t="s">
         <v>537</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>475</v>
-      </c>
-      <c r="E15" t="s">
+        <v>553</v>
+      </c>
+      <c r="F15" t="s">
         <v>58</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>263</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>547</v>
       </c>
-      <c r="M15" t="s">
+      <c r="N15" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" t="s">
+      <c r="R15" t="s">
         <v>532</v>
       </c>
-      <c r="R15" t="s">
+      <c r="S15" t="s">
         <v>250</v>
       </c>
-      <c r="Y15" t="s">
+      <c r="Z15" t="s">
         <v>103</v>
       </c>
-      <c r="AB15" t="s">
+      <c r="AC15" t="s">
         <v>193</v>
       </c>
-      <c r="AD15" t="s">
+      <c r="AE15" t="s">
         <v>538</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>195</v>
-      </c>
-      <c r="E16" t="s">
+        <v>475</v>
+      </c>
+      <c r="F16" t="s">
         <v>384</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>264</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>80</v>
       </c>
-      <c r="M16" t="s">
+      <c r="N16" t="s">
         <v>587</v>
       </c>
-      <c r="Q16" t="s">
+      <c r="R16" t="s">
         <v>533</v>
       </c>
-      <c r="R16" t="s">
+      <c r="S16" t="s">
         <v>251</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Z16" t="s">
         <v>74</v>
       </c>
-      <c r="AB16" t="s">
+      <c r="AC16" t="s">
         <v>194</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AE16" t="s">
         <v>539</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E17" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" t="s">
         <v>385</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>316</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>81</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>39</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Z17" t="s">
         <v>534</v>
       </c>
-      <c r="AB17" t="s">
+      <c r="AC17" t="s">
         <v>466</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AE17" t="s">
         <v>540</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>238</v>
-      </c>
-      <c r="E18" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" t="s">
         <v>414</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>88</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>462</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>42</v>
       </c>
-      <c r="Y18" t="s">
+      <c r="Z18" t="s">
         <v>104</v>
       </c>
-      <c r="AD18" t="s">
+      <c r="AE18" t="s">
         <v>474</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>52</v>
-      </c>
-      <c r="E19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F19" t="s">
         <v>59</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>89</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>82</v>
       </c>
-      <c r="Y19" t="s">
+      <c r="Z19" t="s">
         <v>105</v>
       </c>
-      <c r="AD19" t="s">
+      <c r="AE19" t="s">
         <v>541</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>395</v>
-      </c>
-      <c r="E20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" t="s">
         <v>60</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>295</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>83</v>
       </c>
-      <c r="Y20" t="s">
+      <c r="Z20" t="s">
         <v>106</v>
       </c>
-      <c r="AD20" t="s">
+      <c r="AE20" t="s">
         <v>542</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>411</v>
-      </c>
-      <c r="E21" t="s">
+        <v>395</v>
+      </c>
+      <c r="F21" t="s">
         <v>255</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>296</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>379</v>
       </c>
-      <c r="Y21" t="s">
+      <c r="Z21" t="s">
         <v>107</v>
       </c>
-      <c r="AD21" t="s">
+      <c r="AE21" t="s">
         <v>543</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>412</v>
-      </c>
-      <c r="E22" t="s">
+        <v>411</v>
+      </c>
+      <c r="F22" t="s">
         <v>583</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>297</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>469</v>
       </c>
-      <c r="Y22" t="s">
+      <c r="Z22" t="s">
         <v>526</v>
       </c>
-      <c r="AD22" t="s">
+      <c r="AE22" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>356</v>
-      </c>
-      <c r="E23" t="s">
+        <v>412</v>
+      </c>
+      <c r="F23" t="s">
         <v>61</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>298</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>43</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="Z23" t="s">
         <v>109</v>
       </c>
-      <c r="AD23" t="s">
+      <c r="AE23" t="s">
         <v>579</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>396</v>
-      </c>
-      <c r="E24" t="s">
+        <v>356</v>
+      </c>
+      <c r="F24" t="s">
         <v>320</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>289</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>391</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Z24" t="s">
         <v>588</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AE24" t="s">
         <v>580</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" t="s">
+        <v>396</v>
+      </c>
+      <c r="F25" t="s">
         <v>62</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>278</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>568</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Z25" t="s">
         <v>110</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AE25" t="s">
         <v>581</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" t="s">
         <v>448</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>75</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>84</v>
       </c>
-      <c r="Y26" t="s">
+      <c r="Z26" t="s">
         <v>111</v>
       </c>
-      <c r="AD26" t="s">
+      <c r="AE26" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F27" t="s">
         <v>224</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>281</v>
       </c>
-      <c r="K27" t="s">
+      <c r="L27" t="s">
         <v>433</v>
       </c>
-      <c r="Y27" t="s">
+      <c r="Z27" t="s">
         <v>112</v>
       </c>
-      <c r="AD27" t="s">
+      <c r="AE27" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F28" t="s">
         <v>225</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>265</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>44</v>
       </c>
-      <c r="Y28" t="s">
+      <c r="Z28" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>413</v>
-      </c>
-      <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>467</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>282</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>45</v>
       </c>
-      <c r="Y29" t="s">
+      <c r="Z29" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
+        <v>413</v>
+      </c>
+      <c r="F30" t="s">
+        <v>468</v>
+      </c>
+      <c r="H30" t="s">
+        <v>283</v>
+      </c>
+      <c r="Z30" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
         <v>226</v>
       </c>
-      <c r="E30" t="s">
-        <v>468</v>
-      </c>
-      <c r="G30" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y30" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>415</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>215</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="Z31" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="32">
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>63</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>274</v>
       </c>
-      <c r="Y32" t="s">
+      <c r="Z32" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="33">
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>64</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>284</v>
       </c>
-      <c r="Y33" t="s">
+      <c r="Z33" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="34">
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>65</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>549</v>
       </c>
-      <c r="Y34" t="s">
+      <c r="Z34" t="s">
         <v>589</v>
       </c>
     </row>
     <row r="35">
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>66</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>259</v>
       </c>
-      <c r="Y35" t="s">
+      <c r="Z35" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="36">
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>67</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>329</v>
       </c>
-      <c r="Y36" t="s">
+      <c r="Z36" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="37">
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>68</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>306</v>
       </c>
-      <c r="Y37" t="s">
+      <c r="Z37" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="38">
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>69</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>260</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="Z38" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="39">
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>70</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>307</v>
       </c>
-      <c r="Y39" t="s">
+      <c r="Z39" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="40">
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>266</v>
       </c>
-      <c r="Y40" t="s">
+      <c r="Z40" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="41">
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>77</v>
       </c>
-      <c r="Y41" t="s">
-        <v>574</v>
+      <c r="Z41" t="s">
+        <v>599</v>
       </c>
     </row>
     <row r="42">
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>211</v>
       </c>
-      <c r="Y42" t="s">
+      <c r="Z42" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="43">
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>585</v>
       </c>
-      <c r="Y43" t="s">
+      <c r="Z43" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="44">
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>288</v>
       </c>
-      <c r="Y44" t="s">
+      <c r="Z44" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="45">
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>299</v>
       </c>
-      <c r="Y45" t="s">
+      <c r="Z45" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="46">
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>300</v>
       </c>
-      <c r="Y46" t="s">
+      <c r="Z46" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="47">
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>342</v>
       </c>
-      <c r="Y47" t="s">
+      <c r="Z47" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="48">
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>341</v>
       </c>
-      <c r="Y48" t="s">
+      <c r="Z48" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="49">
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>210</v>
       </c>
-      <c r="Y49" t="s">
+      <c r="Z49" t="s">
         <v>438</v>
       </c>
     </row>
     <row r="50">
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>319</v>
       </c>
-      <c r="Y50" t="s">
+      <c r="Z50" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="51">
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>338</v>
       </c>
-      <c r="Y51" t="s">
+      <c r="Z51" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="52">
-      <c r="G52" t="s">
+      <c r="H52" t="s">
         <v>367</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="Z52" t="s">
         <v>575</v>
       </c>
     </row>
     <row r="53">
-      <c r="G53" t="s">
+      <c r="H53" t="s">
         <v>301</v>
       </c>
-      <c r="Y53" t="s">
+      <c r="Z53" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="54">
-      <c r="G54" t="s">
+      <c r="H54" t="s">
         <v>355</v>
       </c>
-      <c r="Y54" t="s">
+      <c r="Z54" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="55">
-      <c r="G55" t="s">
+      <c r="H55" t="s">
         <v>330</v>
       </c>
-      <c r="Y55" t="s">
+      <c r="Z55" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="56">
-      <c r="G56" t="s">
+      <c r="H56" t="s">
         <v>267</v>
       </c>
-      <c r="Y56" t="s">
+      <c r="Z56" t="s">
         <v>481</v>
       </c>
     </row>
     <row r="57">
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>291</v>
       </c>
-      <c r="Y57" t="s">
+      <c r="Z57" t="s">
         <v>463</v>
       </c>
     </row>
     <row r="58">
-      <c r="G58" t="s">
+      <c r="H58" t="s">
         <v>292</v>
       </c>
-      <c r="Y58" t="s">
+      <c r="Z58" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="59">
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>586</v>
       </c>
-      <c r="Y59" t="s">
+      <c r="Z59" t="s">
         <v>345</v>
       </c>
     </row>
     <row r="60">
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>293</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="Z60" t="s">
         <v>464</v>
       </c>
     </row>
     <row r="61">
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>302</v>
       </c>
-      <c r="Y61" t="s">
+      <c r="Z61" t="s">
         <v>131</v>
       </c>
     </row>
     <row r="62">
-      <c r="G62" t="s">
+      <c r="H62" t="s">
         <v>311</v>
       </c>
-      <c r="Y62" t="s">
+      <c r="Z62" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="63">
-      <c r="G63" t="s">
+      <c r="H63" t="s">
         <v>336</v>
       </c>
-      <c r="Y63" t="s">
+      <c r="Z63" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="64">
-      <c r="G64" t="s">
+      <c r="H64" t="s">
         <v>308</v>
       </c>
-      <c r="Y64" t="s">
+      <c r="Z64" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="65">
-      <c r="G65" t="s">
+      <c r="H65" t="s">
         <v>309</v>
       </c>
-      <c r="Y65" t="s">
+      <c r="Z65" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="66">
-      <c r="G66" t="s">
+      <c r="H66" t="s">
         <v>368</v>
       </c>
-      <c r="Y66" t="s">
+      <c r="Z66" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="67">
-      <c r="G67" t="s">
+      <c r="H67" t="s">
         <v>369</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="Z67" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="68">
-      <c r="G68" t="s">
+      <c r="H68" t="s">
         <v>344</v>
       </c>
-      <c r="Y68" t="s">
+      <c r="Z68" t="s">
         <v>439</v>
       </c>
     </row>
     <row r="69">
-      <c r="G69" t="s">
+      <c r="H69" t="s">
         <v>312</v>
       </c>
-      <c r="Y69" t="s">
+      <c r="Z69" t="s">
         <v>472</v>
       </c>
     </row>
     <row r="70">
-      <c r="G70" t="s">
+      <c r="H70" t="s">
         <v>268</v>
       </c>
-      <c r="Y70" t="s">
+      <c r="Z70" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="71">
-      <c r="G71" t="s">
+      <c r="H71" t="s">
         <v>569</v>
       </c>
-      <c r="Y71" t="s">
+      <c r="Z71" t="s">
         <v>388</v>
       </c>
     </row>
     <row r="72">
-      <c r="G72" t="s">
+      <c r="H72" t="s">
         <v>313</v>
       </c>
-      <c r="Y72" t="s">
+      <c r="Z72" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="73">
-      <c r="G73" t="s">
+      <c r="H73" t="s">
         <v>409</v>
       </c>
-      <c r="Y73" t="s">
+      <c r="Z73" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="74">
-      <c r="G74" t="s">
+      <c r="H74" t="s">
         <v>303</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="Z74" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="75">
-      <c r="G75" t="s">
+      <c r="H75" t="s">
         <v>410</v>
       </c>
-      <c r="Y75" t="s">
+      <c r="Z75" t="s">
         <v>140</v>
       </c>
     </row>
     <row r="76">
-      <c r="G76" t="s">
+      <c r="H76" t="s">
         <v>261</v>
       </c>
-      <c r="Y76" t="s">
+      <c r="Z76" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="77">
-      <c r="G77" t="s">
+      <c r="H77" t="s">
         <v>550</v>
       </c>
-      <c r="Y77" t="s">
+      <c r="Z77" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="78">
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>343</v>
       </c>
-      <c r="Y78" t="s">
+      <c r="Z78" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="79">
-      <c r="G79" t="s">
+      <c r="H79" t="s">
         <v>279</v>
       </c>
-      <c r="Y79" t="s">
+      <c r="Z79" t="s">
         <v>452</v>
       </c>
     </row>
     <row r="80">
-      <c r="G80" t="s">
+      <c r="H80" t="s">
         <v>285</v>
       </c>
-      <c r="Y80" t="s">
+      <c r="Z80" t="s">
         <v>465</v>
       </c>
     </row>
     <row r="81">
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>290</v>
       </c>
-      <c r="Y81" t="s">
+      <c r="Z81" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="82">
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>428</v>
       </c>
-      <c r="Y82" t="s">
+      <c r="Z82" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="83">
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>331</v>
       </c>
-      <c r="Y83" t="s">
+      <c r="Z83" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="84">
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>269</v>
       </c>
-      <c r="Y84" t="s">
+      <c r="Z84" t="s">
         <v>535</v>
       </c>
     </row>
     <row r="85">
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>280</v>
       </c>
-      <c r="Y85" t="s">
+      <c r="Z85" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="86">
-      <c r="G86" t="s">
+      <c r="H86" t="s">
         <v>286</v>
       </c>
-      <c r="Y86" t="s">
+      <c r="Z86" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="87">
-      <c r="G87" t="s">
+      <c r="H87" t="s">
         <v>275</v>
       </c>
-      <c r="Y87" t="s">
+      <c r="Z87" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="88">
-      <c r="G88" t="s">
+      <c r="H88" t="s">
         <v>570</v>
       </c>
-      <c r="Y88" t="s">
+      <c r="Z88" t="s">
         <v>504</v>
       </c>
     </row>
     <row r="89">
-      <c r="G89" t="s">
+      <c r="H89" t="s">
         <v>270</v>
       </c>
-      <c r="Y89" t="s">
+      <c r="Z89" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="90">
-      <c r="G90" t="s">
+      <c r="H90" t="s">
         <v>287</v>
       </c>
-      <c r="Y90" t="s">
+      <c r="Z90" t="s">
         <v>453</v>
       </c>
     </row>
     <row r="91">
-      <c r="G91" t="s">
+      <c r="H91" t="s">
         <v>271</v>
       </c>
-      <c r="Y91" t="s">
+      <c r="Z91" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="92">
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>272</v>
       </c>
-      <c r="Y92" t="s">
+      <c r="Z92" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="93">
-      <c r="G93" t="s">
+      <c r="H93" t="s">
         <v>304</v>
       </c>
-      <c r="Y93" t="s">
+      <c r="Z93" t="s">
         <v>592</v>
       </c>
     </row>
     <row r="94">
-      <c r="G94" t="s">
+      <c r="H94" t="s">
         <v>310</v>
       </c>
-      <c r="Y94" t="s">
+      <c r="Z94" t="s">
         <v>593</v>
       </c>
     </row>
     <row r="95">
-      <c r="G95" t="s">
+      <c r="H95" t="s">
         <v>294</v>
       </c>
-      <c r="Y95" t="s">
+      <c r="Z95" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="96">
-      <c r="G96" t="s">
+      <c r="H96" t="s">
         <v>339</v>
       </c>
-      <c r="Y96" t="s">
+      <c r="Z96" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="97">
-      <c r="G97" t="s">
+      <c r="H97" t="s">
         <v>276</v>
       </c>
-      <c r="Y97" t="s">
+      <c r="Z97" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="98">
-      <c r="G98" t="s">
+      <c r="H98" t="s">
         <v>277</v>
       </c>
-      <c r="Y98" t="s">
+      <c r="Z98" t="s">
         <v>441</v>
       </c>
     </row>
     <row r="99">
-      <c r="Y99" t="s">
+      <c r="Z99" t="s">
         <v>442</v>
       </c>
     </row>
     <row r="100">
-      <c r="Y100" t="s">
+      <c r="Z100" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="101">
-      <c r="Y101" t="s">
+      <c r="Z101" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="102">
-      <c r="Y102" t="s">
+      <c r="Z102" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="103">
-      <c r="Y103" t="s">
+      <c r="Z103" t="s">
         <v>206</v>
       </c>
     </row>
     <row r="104">
-      <c r="Y104" t="s">
+      <c r="Z104" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="105">
-      <c r="Y105" t="s">
+      <c r="Z105" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="106">
-      <c r="Y106" t="s">
+      <c r="Z106" t="s">
         <v>548</v>
       </c>
     </row>
     <row r="107">
-      <c r="Y107" t="s">
+      <c r="Z107" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="Z108" t="s">
         <v>551</v>
       </c>
     </row>
-    <row r="108">
-      <c r="Y108" t="s">
+    <row r="109">
+      <c r="Z109" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="109">
-      <c r="Y109" t="s">
+    <row r="110">
+      <c r="Z110" t="s">
         <v>552</v>
       </c>
     </row>
-    <row r="110">
-      <c r="Y110" t="s">
+    <row r="111">
+      <c r="Z111" t="s">
         <v>382</v>
       </c>
     </row>
-    <row r="111">
-      <c r="Y111" t="s">
+    <row r="112">
+      <c r="Z112" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="112">
-      <c r="Y112" t="s">
+    <row r="113">
+      <c r="Z113" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="113">
-      <c r="Y113" t="s">
+    <row r="114">
+      <c r="Z114" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="114">
-      <c r="Y114" t="s">
+    <row r="115">
+      <c r="Z115" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="115">
-      <c r="Y115" t="s">
+    <row r="116">
+      <c r="Z116" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="116">
-      <c r="Y116" t="s">
+    <row r="117">
+      <c r="Z117" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="117">
-      <c r="Y117" t="s">
+    <row r="118">
+      <c r="Z118" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="118">
-      <c r="Y118" t="s">
+    <row r="119">
+      <c r="Z119" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="119">
-      <c r="Y119" t="s">
+    <row r="120">
+      <c r="Z120" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="120">
-      <c r="Y120" t="s">
+    <row r="121">
+      <c r="Z121" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="121">
-      <c r="Y121" t="s">
+    <row r="122">
+      <c r="Z122" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="122">
-      <c r="Y122" t="s">
+    <row r="123">
+      <c r="Z123" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="123">
-      <c r="Y123" t="s">
+    <row r="124">
+      <c r="Z124" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="124">
-      <c r="Y124" t="s">
+    <row r="125">
+      <c r="Z125" t="s">
         <v>443</v>
       </c>
     </row>
-    <row r="125">
-      <c r="Y125" t="s">
+    <row r="126">
+      <c r="Z126" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="126">
-      <c r="Y126" t="s">
+    <row r="127">
+      <c r="Z127" t="s">
         <v>590</v>
       </c>
     </row>
-    <row r="127">
-      <c r="Y127" t="s">
+    <row r="128">
+      <c r="Z128" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="128">
-      <c r="Y128" t="s">
+    <row r="129">
+      <c r="Z129" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="129">
-      <c r="Y129" t="s">
+    <row r="130">
+      <c r="Z130" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="130">
-      <c r="Y130" t="s">
+    <row r="131">
+      <c r="Z131" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="131">
-      <c r="Y131" t="s">
+    <row r="132">
+      <c r="Z132" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="132">
-      <c r="Y132" t="s">
+    <row r="133">
+      <c r="Z133" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="133">
-      <c r="Y133" t="s">
+    <row r="134">
+      <c r="Z134" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="134">
-      <c r="Y134" t="s">
+    <row r="135">
+      <c r="Z135" t="s">
         <v>169</v>
       </c>
     </row>

--- a/examples/macros/artifact/script/FindNexialCommands.xlsx
+++ b/examples/macros/artifact/script/FindNexialCommands.xlsx
@@ -20,7 +20,7 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$F$2:$F$39</definedName>
+    <definedName name="base">'#system'!$F$2:$F$40</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
@@ -28,7 +28,7 @@
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
     <definedName name="external">'#system'!$J$2:$J$5</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
-    <definedName name="io">'#system'!$L$2:$L$29</definedName>
+    <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
     <definedName name="json">'#system'!$N$2:$N$18</definedName>
     <definedName name="macro">'#system'!$P$2:$P$4</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14621" uniqueCount="600">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15746" uniqueCount="605">
   <si>
     <t>description</t>
   </si>
@@ -1928,13 +1928,28 @@
   <si>
     <t>assertTextNotContain(locator,text)</t>
   </si>
+  <si>
+    <t>clear(variables)</t>
+  </si>
+  <si>
+    <t>saveMatches(var,path,fileFilter,textFilter)</t>
+  </si>
+  <si>
+    <t>clearVariables(variables)</t>
+  </si>
+  <si>
+    <t>assertPath(path)</t>
+  </si>
+  <si>
+    <t>assertAttributeContain(locator,attrName,contains)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="429" x14ac:knownFonts="1">
+  <fonts count="461" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4651,8 +4666,210 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="742">
+  <fills count="796">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -8853,8 +9070,314 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="771">
+  <borders count="835">
     <border>
       <left/>
       <right/>
@@ -16664,6 +17187,658 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -16671,7 +17846,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="456">
+  <cellXfs count="488">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -18012,52 +19187,148 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="714" fontId="412" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="413" fillId="717" borderId="746" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="746" fillId="717" fontId="413" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="414" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="414" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="415" fillId="720" borderId="750" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="750" fillId="720" fontId="415" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="416" fillId="723" borderId="754" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="754" fillId="723" fontId="416" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="417" fillId="726" borderId="758" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="758" fillId="726" fontId="417" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="418" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="418" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="419" fillId="729" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="729" fontId="419" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="420" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="420" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="421" fillId="732" borderId="762" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="762" fillId="732" fontId="421" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="422" fillId="723" borderId="766" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="766" fillId="723" fontId="422" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="423" fillId="735" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="735" fontId="423" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="424" fillId="735" borderId="770" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="770" fillId="735" fontId="424" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="425" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="726" fontId="425" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="426" fillId="738" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="738" fontId="426" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="427" fillId="726" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="726" fontId="427" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="428" fillId="741" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="741" fontId="428" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="778" fillId="744" fontId="429" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="430" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="782" fillId="747" fontId="431" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="786" fillId="750" fontId="432" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="790" fillId="753" fontId="433" numFmtId="0" xfId="0">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="434" numFmtId="0" xfId="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="756" fontId="435" numFmtId="0" xfId="0">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf applyFont="true" borderId="0" fillId="0" fontId="436" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="794" fillId="759" fontId="437" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="798" fillId="750" fontId="438" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="762" fontId="439" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="802" fillId="762" fontId="440" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="753" fontId="441" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="765" fontId="442" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="753" fontId="443" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="768" fontId="444" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="445" fillId="771" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="447" fillId="774" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="448" fillId="777" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="449" fillId="780" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="451" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="453" fillId="786" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="454" fillId="777" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="455" fillId="789" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="456" fillId="789" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="457" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="458" fillId="792" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="459" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="460" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -18728,7 +19999,7 @@
         <v>349</v>
       </c>
       <c r="L4" t="s">
-        <v>237</v>
+        <v>603</v>
       </c>
       <c r="M4" t="s">
         <v>334</v>
@@ -18764,7 +20035,7 @@
         <v>408</v>
       </c>
       <c r="Z4" t="s">
-        <v>353</v>
+        <v>604</v>
       </c>
       <c r="AA4" t="s">
         <v>172</v>
@@ -18811,7 +20082,7 @@
         <v>350</v>
       </c>
       <c r="L5" t="s">
-        <v>461</v>
+        <v>237</v>
       </c>
       <c r="N5" t="s">
         <v>86</v>
@@ -18882,7 +20153,7 @@
         <v>347</v>
       </c>
       <c r="L6" t="s">
-        <v>71</v>
+        <v>461</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -18944,7 +20215,7 @@
         <v>572</v>
       </c>
       <c r="L7" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="N7" t="s">
         <v>314</v>
@@ -19003,7 +20274,7 @@
         <v>327</v>
       </c>
       <c r="L8" t="s">
-        <v>545</v>
+        <v>16</v>
       </c>
       <c r="N8" t="s">
         <v>33</v>
@@ -19059,7 +20330,7 @@
         <v>328</v>
       </c>
       <c r="L9" t="s">
-        <v>79</v>
+        <v>545</v>
       </c>
       <c r="N9" t="s">
         <v>34</v>
@@ -19103,7 +20374,7 @@
         <v>451</v>
       </c>
       <c r="L10" t="s">
-        <v>37</v>
+        <v>79</v>
       </c>
       <c r="N10" t="s">
         <v>35</v>
@@ -19144,7 +20415,7 @@
         <v>321</v>
       </c>
       <c r="L11" t="s">
-        <v>546</v>
+        <v>37</v>
       </c>
       <c r="N11" t="s">
         <v>470</v>
@@ -19182,7 +20453,7 @@
         <v>322</v>
       </c>
       <c r="L12" t="s">
-        <v>389</v>
+        <v>546</v>
       </c>
       <c r="N12" t="s">
         <v>573</v>
@@ -19220,7 +20491,7 @@
         <v>323</v>
       </c>
       <c r="L13" t="s">
-        <v>17</v>
+        <v>389</v>
       </c>
       <c r="N13" t="s">
         <v>435</v>
@@ -19255,7 +20526,7 @@
         <v>324</v>
       </c>
       <c r="L14" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="N14" t="s">
         <v>471</v>
@@ -19287,7 +20558,7 @@
         <v>263</v>
       </c>
       <c r="L15" t="s">
-        <v>547</v>
+        <v>41</v>
       </c>
       <c r="N15" t="s">
         <v>38</v>
@@ -19319,7 +20590,7 @@
         <v>264</v>
       </c>
       <c r="L16" t="s">
-        <v>80</v>
+        <v>547</v>
       </c>
       <c r="N16" t="s">
         <v>587</v>
@@ -19351,7 +20622,7 @@
         <v>316</v>
       </c>
       <c r="L17" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="N17" t="s">
         <v>39</v>
@@ -19377,7 +20648,7 @@
         <v>88</v>
       </c>
       <c r="L18" t="s">
-        <v>462</v>
+        <v>81</v>
       </c>
       <c r="N18" t="s">
         <v>42</v>
@@ -19394,13 +20665,13 @@
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>602</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
       </c>
       <c r="L19" t="s">
-        <v>82</v>
+        <v>462</v>
       </c>
       <c r="Z19" t="s">
         <v>105</v>
@@ -19414,13 +20685,13 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
       </c>
       <c r="L20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="Z20" t="s">
         <v>106</v>
@@ -19434,13 +20705,13 @@
         <v>395</v>
       </c>
       <c r="F21" t="s">
-        <v>255</v>
+        <v>60</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
       </c>
       <c r="L21" t="s">
-        <v>379</v>
+        <v>83</v>
       </c>
       <c r="Z21" t="s">
         <v>107</v>
@@ -19454,13 +20725,13 @@
         <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>583</v>
+        <v>255</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
       </c>
       <c r="L22" t="s">
-        <v>469</v>
+        <v>601</v>
       </c>
       <c r="Z22" t="s">
         <v>526</v>
@@ -19474,13 +20745,13 @@
         <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>61</v>
+        <v>583</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
       </c>
       <c r="L23" t="s">
-        <v>43</v>
+        <v>469</v>
       </c>
       <c r="Z23" t="s">
         <v>109</v>
@@ -19494,13 +20765,13 @@
         <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>320</v>
+        <v>61</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
       </c>
       <c r="L24" t="s">
-        <v>391</v>
+        <v>43</v>
       </c>
       <c r="Z24" t="s">
         <v>588</v>
@@ -19514,13 +20785,13 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>320</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
       </c>
       <c r="L25" t="s">
-        <v>568</v>
+        <v>391</v>
       </c>
       <c r="Z25" t="s">
         <v>110</v>
@@ -19534,13 +20805,13 @@
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>448</v>
+        <v>62</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
       </c>
       <c r="L26" t="s">
-        <v>84</v>
+        <v>568</v>
       </c>
       <c r="Z26" t="s">
         <v>111</v>
@@ -19554,13 +20825,13 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>448</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
       </c>
       <c r="L27" t="s">
-        <v>433</v>
+        <v>84</v>
       </c>
       <c r="Z27" t="s">
         <v>112</v>
@@ -19574,13 +20845,13 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
       </c>
       <c r="L28" t="s">
-        <v>44</v>
+        <v>433</v>
       </c>
       <c r="Z28" t="s">
         <v>113</v>
@@ -19591,13 +20862,13 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>467</v>
+        <v>225</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
       </c>
       <c r="L29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Z29" t="s">
         <v>326</v>
@@ -19608,10 +20879,13 @@
         <v>413</v>
       </c>
       <c r="F30" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
+      </c>
+      <c r="L30" t="s">
+        <v>45</v>
       </c>
       <c r="Z30" t="s">
         <v>114</v>
@@ -19622,7 +20896,7 @@
         <v>226</v>
       </c>
       <c r="F31" t="s">
-        <v>415</v>
+        <v>468</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
@@ -19633,7 +20907,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>63</v>
+        <v>415</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
@@ -19644,7 +20918,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
@@ -19655,7 +20929,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H34" t="s">
         <v>549</v>
@@ -19666,7 +20940,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
@@ -19677,7 +20951,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="H36" t="s">
         <v>329</v>
@@ -19688,7 +20962,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H37" t="s">
         <v>306</v>
@@ -19699,7 +20973,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
@@ -19710,7 +20984,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H39" t="s">
         <v>307</v>
@@ -19720,6 +20994,9 @@
       </c>
     </row>
     <row r="40">
+      <c r="F40" t="s">
+        <v>70</v>
+      </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>

--- a/examples/macros/artifact/script/FindNexialCommands.xlsx
+++ b/examples/macros/artifact/script/FindNexialCommands.xlsx
@@ -20,13 +20,13 @@
   <definedNames>
     <definedName name="aws.s3">'#system'!$B$2:$B$9</definedName>
     <definedName name="aws.ses">'#system'!$C$2:$C$3</definedName>
-    <definedName name="base">'#system'!$F$2:$F$40</definedName>
+    <definedName name="base">'#system'!$F$2:$F$39</definedName>
     <definedName name="csv">'#system'!$G$2:$G$6</definedName>
     <definedName name="date">'#system'!$C$2:$C$14</definedName>
     <definedName name="db">'#system'!$D$2:$D$5</definedName>
     <definedName name="desktop">'#system'!$H$2:$H$98</definedName>
     <definedName name="excel">'#system'!$I$2:$I$14</definedName>
-    <definedName name="external">'#system'!$J$2:$J$5</definedName>
+    <definedName name="external">'#system'!$J$2:$J$6</definedName>
     <definedName name="image">'#system'!$K$2:$K$7</definedName>
     <definedName name="io">'#system'!$L$2:$L$30</definedName>
     <definedName name="jms">'#system'!$M$2:$M$4</definedName>
@@ -45,7 +45,7 @@
     <definedName name="ssh">'#system'!$X$2:$X$9</definedName>
     <definedName name="step">'#system'!$Y$2:$Y$4</definedName>
     <definedName name="target">'#system'!$A$2:$A$31</definedName>
-    <definedName name="web">'#system'!$Z$2:$Z$135</definedName>
+    <definedName name="web">'#system'!$Z$2:$Z$137</definedName>
     <definedName name="webalert">'#system'!$AA$2:$AA$8</definedName>
     <definedName name="webcookie">'#system'!$AB$2:$AB$8</definedName>
     <definedName name="ws">'#system'!$AC$2:$AC$17</definedName>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15746" uniqueCount="605">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16311" uniqueCount="608">
   <si>
     <t>description</t>
   </si>
@@ -1943,13 +1943,22 @@
   <si>
     <t>assertAttributeContain(locator,attrName,contains)</t>
   </si>
+  <si>
+    <t>terminate(programName)</t>
+  </si>
+  <si>
+    <t>saveSelectedText(var,locator)</t>
+  </si>
+  <si>
+    <t>saveSelectedValue(var,locator)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="461" x14ac:knownFonts="1">
+  <fonts count="477" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4868,8 +4877,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="796">
+  <fills count="823">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9376,8 +9486,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="835">
+  <borders count="867">
     <border>
       <left/>
       <right/>
@@ -17839,6 +18102,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -17846,7 +18435,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="488">
+  <cellXfs count="504">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19283,52 +19872,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="768" fontId="444" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="445" fillId="771" borderId="810" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="810" fillId="771" fontId="445" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="446" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="446" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="447" fillId="774" borderId="814" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="814" fillId="774" fontId="447" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="448" fillId="777" borderId="818" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="818" fillId="777" fontId="448" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="449" fillId="780" borderId="822" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="822" fillId="780" fontId="449" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="450" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="450" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="451" fillId="783" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="783" fontId="451" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="452" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="452" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="453" fillId="786" borderId="826" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="826" fillId="786" fontId="453" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="454" fillId="777" borderId="830" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="830" fillId="777" fontId="454" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="455" fillId="789" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="789" fontId="455" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="456" fillId="789" borderId="834" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="834" fillId="789" fontId="456" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="457" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="780" fontId="457" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="458" fillId="792" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="792" fontId="458" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="459" fillId="780" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="780" fontId="459" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="460" fillId="795" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="795" fontId="460" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="461" fillId="798" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="463" fillId="801" borderId="846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="464" fillId="804" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="465" fillId="807" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="467" fillId="810" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="468" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="469" fillId="813" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="470" fillId="804" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="471" fillId="816" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="472" fillId="816" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="473" fillId="807" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="474" fillId="819" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="475" fillId="807" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="476" fillId="822" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -19683,7 +20320,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF135"/>
+  <dimension ref="A1:AF137"/>
   <sheetViews>
     <sheetView tabSelected="false" workbookViewId="0" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125">
       <selection activeCell="A19" sqref="A19"/>
@@ -20149,6 +20786,9 @@
       <c r="I6" t="s">
         <v>447</v>
       </c>
+      <c r="J6" t="s">
+        <v>605</v>
+      </c>
       <c r="K6" t="s">
         <v>347</v>
       </c>
@@ -20665,7 +21305,7 @@
         <v>238</v>
       </c>
       <c r="F19" t="s">
-        <v>602</v>
+        <v>59</v>
       </c>
       <c r="H19" t="s">
         <v>89</v>
@@ -20685,7 +21325,7 @@
         <v>52</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="H20" t="s">
         <v>295</v>
@@ -20705,7 +21345,7 @@
         <v>395</v>
       </c>
       <c r="F21" t="s">
-        <v>60</v>
+        <v>255</v>
       </c>
       <c r="H21" t="s">
         <v>296</v>
@@ -20725,7 +21365,7 @@
         <v>411</v>
       </c>
       <c r="F22" t="s">
-        <v>255</v>
+        <v>583</v>
       </c>
       <c r="H22" t="s">
         <v>297</v>
@@ -20745,7 +21385,7 @@
         <v>412</v>
       </c>
       <c r="F23" t="s">
-        <v>583</v>
+        <v>61</v>
       </c>
       <c r="H23" t="s">
         <v>298</v>
@@ -20765,7 +21405,7 @@
         <v>356</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>320</v>
       </c>
       <c r="H24" t="s">
         <v>289</v>
@@ -20785,7 +21425,7 @@
         <v>396</v>
       </c>
       <c r="F25" t="s">
-        <v>320</v>
+        <v>62</v>
       </c>
       <c r="H25" t="s">
         <v>278</v>
@@ -20805,7 +21445,7 @@
         <v>53</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>448</v>
       </c>
       <c r="H26" t="s">
         <v>75</v>
@@ -20825,7 +21465,7 @@
         <v>54</v>
       </c>
       <c r="F27" t="s">
-        <v>448</v>
+        <v>224</v>
       </c>
       <c r="H27" t="s">
         <v>281</v>
@@ -20845,7 +21485,7 @@
         <v>55</v>
       </c>
       <c r="F28" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="H28" t="s">
         <v>265</v>
@@ -20862,7 +21502,7 @@
         <v>56</v>
       </c>
       <c r="F29" t="s">
-        <v>225</v>
+        <v>467</v>
       </c>
       <c r="H29" t="s">
         <v>282</v>
@@ -20879,7 +21519,7 @@
         <v>413</v>
       </c>
       <c r="F30" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="H30" t="s">
         <v>283</v>
@@ -20896,7 +21536,7 @@
         <v>226</v>
       </c>
       <c r="F31" t="s">
-        <v>468</v>
+        <v>415</v>
       </c>
       <c r="H31" t="s">
         <v>215</v>
@@ -20907,7 +21547,7 @@
     </row>
     <row r="32">
       <c r="F32" t="s">
-        <v>415</v>
+        <v>63</v>
       </c>
       <c r="H32" t="s">
         <v>274</v>
@@ -20918,7 +21558,7 @@
     </row>
     <row r="33">
       <c r="F33" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="H33" t="s">
         <v>284</v>
@@ -20929,7 +21569,7 @@
     </row>
     <row r="34">
       <c r="F34" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H34" t="s">
         <v>549</v>
@@ -20940,7 +21580,7 @@
     </row>
     <row r="35">
       <c r="F35" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H35" t="s">
         <v>259</v>
@@ -20951,7 +21591,7 @@
     </row>
     <row r="36">
       <c r="F36" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="H36" t="s">
         <v>329</v>
@@ -20962,7 +21602,7 @@
     </row>
     <row r="37">
       <c r="F37" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="H37" t="s">
         <v>306</v>
@@ -20973,7 +21613,7 @@
     </row>
     <row r="38">
       <c r="F38" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="H38" t="s">
         <v>260</v>
@@ -20984,7 +21624,7 @@
     </row>
     <row r="39">
       <c r="F39" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H39" t="s">
         <v>307</v>
@@ -20994,9 +21634,6 @@
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="s">
-        <v>70</v>
-      </c>
       <c r="H40" t="s">
         <v>266</v>
       </c>
@@ -21470,186 +22107,196 @@
     </row>
     <row r="99">
       <c r="Z99" t="s">
-        <v>442</v>
+        <v>606</v>
       </c>
     </row>
     <row r="100">
       <c r="Z100" t="s">
-        <v>203</v>
+        <v>607</v>
       </c>
     </row>
     <row r="101">
       <c r="Z101" t="s">
-        <v>204</v>
+        <v>442</v>
       </c>
     </row>
     <row r="102">
       <c r="Z102" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103">
       <c r="Z103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="104">
       <c r="Z104" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
     </row>
     <row r="105">
       <c r="Z105" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="106">
       <c r="Z106" t="s">
-        <v>548</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107">
       <c r="Z107" t="s">
-        <v>596</v>
+        <v>207</v>
       </c>
     </row>
     <row r="108">
       <c r="Z108" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="109">
       <c r="Z109" t="s">
-        <v>148</v>
+        <v>596</v>
       </c>
     </row>
     <row r="110">
       <c r="Z110" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="111">
       <c r="Z111" t="s">
-        <v>382</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112">
       <c r="Z112" t="s">
-        <v>149</v>
+        <v>552</v>
       </c>
     </row>
     <row r="113">
       <c r="Z113" t="s">
-        <v>150</v>
+        <v>382</v>
       </c>
     </row>
     <row r="114">
       <c r="Z114" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="115">
       <c r="Z115" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="116">
       <c r="Z116" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="117">
       <c r="Z117" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118">
       <c r="Z118" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="119">
       <c r="Z119" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120">
       <c r="Z120" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="121">
       <c r="Z121" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="122">
       <c r="Z122" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123">
       <c r="Z123" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="124">
       <c r="Z124" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="125">
       <c r="Z125" t="s">
-        <v>443</v>
+        <v>160</v>
       </c>
     </row>
     <row r="126">
       <c r="Z126" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="127">
       <c r="Z127" t="s">
-        <v>590</v>
+        <v>443</v>
       </c>
     </row>
     <row r="128">
       <c r="Z128" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129">
       <c r="Z129" t="s">
-        <v>164</v>
+        <v>590</v>
       </c>
     </row>
     <row r="130">
       <c r="Z130" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131">
       <c r="Z131" t="s">
-        <v>46</v>
+        <v>164</v>
       </c>
     </row>
     <row r="132">
       <c r="Z132" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="133">
       <c r="Z133" t="s">
-        <v>167</v>
+        <v>46</v>
       </c>
     </row>
     <row r="134">
       <c r="Z134" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135">
       <c r="Z135" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="Z136" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="Z137" t="s">
         <v>169</v>
       </c>
     </row>

--- a/examples/macros/artifact/script/FindNexialCommands.xlsx
+++ b/examples/macros/artifact/script/FindNexialCommands.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16311" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16876" uniqueCount="608">
   <si>
     <t>description</t>
   </si>
@@ -1958,7 +1958,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="477" x14ac:knownFonts="1">
+  <fonts count="493" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -4978,8 +4978,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="823">
+  <fills count="850">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9639,8 +9740,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="867">
+  <borders count="899">
     <border>
       <left/>
       <right/>
@@ -18428,6 +18682,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -18435,7 +19015,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="504">
+  <cellXfs count="520">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -19920,52 +20500,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="795" fontId="460" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="461" fillId="798" borderId="842" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="842" fillId="798" fontId="461" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="462" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="462" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="463" fillId="801" borderId="846" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="846" fillId="801" fontId="463" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="464" fillId="804" borderId="850" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="850" fillId="804" fontId="464" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="465" fillId="807" borderId="854" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="854" fillId="807" fontId="465" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="466" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="466" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="467" fillId="810" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="810" fontId="467" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="468" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="468" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="469" fillId="813" borderId="858" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="858" fillId="813" fontId="469" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="470" fillId="804" borderId="862" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="862" fillId="804" fontId="470" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="471" fillId="816" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="816" fontId="471" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="472" fillId="816" borderId="866" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="866" fillId="816" fontId="472" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="473" fillId="807" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="807" fontId="473" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="474" fillId="819" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="819" fontId="474" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="475" fillId="807" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="807" fontId="475" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="476" fillId="822" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="822" fontId="476" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="477" fillId="825" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="479" fillId="828" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="480" fillId="831" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="481" fillId="834" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="483" fillId="837" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="485" fillId="840" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="486" fillId="831" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="487" fillId="843" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="488" fillId="843" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="489" fillId="834" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="490" fillId="846" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="491" fillId="834" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="492" fillId="849" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>

--- a/examples/macros/artifact/script/FindNexialCommands.xlsx
+++ b/examples/macros/artifact/script/FindNexialCommands.xlsx
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16876" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17441" uniqueCount="608">
   <si>
     <t>description</t>
   </si>
@@ -1958,7 +1958,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="493" x14ac:knownFonts="1">
+  <fonts count="509" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -5079,8 +5079,109 @@
       <color rgb="808080"/>
       <u val="none"/>
     </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="3E511F"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="287389"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="6E6E3C"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="5A5A32"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="11.0"/>
+      <color rgb="12284A"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Consolas"/>
+      <sz val="10.0"/>
+      <color rgb="0000FF"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="050505"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="006100"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="10.0"/>
+      <color rgb="9C0006"/>
+      <b val="true"/>
+      <u val="none"/>
+    </font>
+    <font>
+      <name val="Tahoma"/>
+      <sz val="11.0"/>
+      <color rgb="808080"/>
+      <u val="none"/>
+    </font>
   </fonts>
-  <fills count="850">
+  <fills count="877">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -9893,8 +9994,161 @@
         <bgColor rgb="E6E6E6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6EFD7"/>
+        <bgColor rgb="E6EFD7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="DCE1E6"/>
+        <bgColor rgb="DCE1E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="F0F0E1"/>
+        <bgColor rgb="F0F0E1"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC7CE"/>
+        <bgColor rgb="FFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="ECECE8"/>
+        <bgColor rgb="ECECE8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FAFAFA"/>
+        <bgColor rgb="FAFAFA"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF"/>
+        <bgColor rgb="FFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="C6EFCE"/>
+        <bgColor rgb="C6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="E6E6E6"/>
+        <bgColor rgb="E6E6E6"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="899">
+  <borders count="931">
     <border>
       <left/>
       <right/>
@@ -19008,6 +19262,332 @@
         <color rgb="C3C3C3"/>
       </bottom>
     </border>
+    <border>
+      <top style="thin"/>
+    </border>
+    <border>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C8B4B4"/>
+      </left>
+      <right style="thin">
+        <color rgb="C8B4B4"/>
+      </right>
+      <top style="thin">
+        <color rgb="C8B4B4"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C8B4B4"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="BEC8CD"/>
+      </left>
+      <right style="thin">
+        <color rgb="BEC8CD"/>
+      </right>
+      <top style="thin">
+        <color rgb="BEC8CD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="BEC8CD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDC3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDC3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDC3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDC3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDC3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDC3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDC3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDC3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="DCDCDC"/>
+      </left>
+      <right style="thin">
+        <color rgb="DCDCDC"/>
+      </right>
+      <top style="thin">
+        <color rgb="DCDCDC"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="DCDCDC"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="CDCDCD"/>
+      </left>
+      <right style="thin">
+        <color rgb="CDCDCD"/>
+      </right>
+      <top style="thin">
+        <color rgb="CDCDCD"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="CDCDCD"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin"/>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="C3C3C3"/>
+      </left>
+      <right style="thin">
+        <color rgb="C3C3C3"/>
+      </right>
+      <top style="thin">
+        <color rgb="C3C3C3"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="C3C3C3"/>
+      </bottom>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
@@ -19015,7 +19595,7 @@
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="3" numFmtId="0"/>
     <xf applyAlignment="0" applyBorder="0" applyFill="0" applyNumberFormat="0" applyProtection="0" borderId="0" fillId="0" fontId="2" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="520">
+  <cellXfs count="536">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1" applyNumberFormat="1" applyProtection="1" borderId="1" fillId="2" fontId="7" numFmtId="49" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -20548,52 +21128,100 @@
     <xf applyFill="true" applyFont="true" borderId="0" fillId="822" fontId="476" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="477" fillId="825" borderId="874" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="874" fillId="825" fontId="477" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="478" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="478" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="479" fillId="828" borderId="878" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="878" fillId="828" fontId="479" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="480" fillId="831" borderId="882" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="882" fillId="831" fontId="480" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="481" fillId="834" borderId="886" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="886" fillId="834" fontId="481" numFmtId="0" xfId="0">
       <alignment vertical="center" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="482" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="482" numFmtId="0" xfId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="483" fillId="837" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="837" fontId="483" numFmtId="0" xfId="0">
       <alignment indent="1" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="484" fillId="0" borderId="0" xfId="0" applyFont="true">
+    <xf applyFont="true" borderId="0" fillId="0" fontId="484" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="485" fillId="840" borderId="890" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="890" fillId="840" fontId="485" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="486" fillId="831" borderId="894" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="894" fillId="831" fontId="486" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="487" fillId="843" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="843" fontId="487" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="488" fillId="843" borderId="898" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+    <xf applyBorder="true" applyFill="true" applyFont="true" borderId="898" fillId="843" fontId="488" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="489" fillId="834" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="834" fontId="489" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="490" fillId="846" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="846" fontId="490" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="491" fillId="834" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="834" fontId="491" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="492" fillId="849" borderId="0" xfId="0" applyFill="true" applyFont="true">
+    <xf applyFill="true" applyFont="true" borderId="0" fillId="849" fontId="492" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="493" fillId="852" borderId="906" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="494" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="495" fillId="855" borderId="910" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="496" fillId="858" borderId="914" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="497" fillId="861" borderId="918" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="498" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="499" fillId="864" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment indent="1" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="500" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="501" fillId="867" borderId="922" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="502" fillId="858" borderId="926" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="503" fillId="870" borderId="930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="504" fillId="870" borderId="930" xfId="0" applyFill="true" applyBorder="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="505" fillId="861" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="506" fillId="873" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="507" fillId="861" borderId="0" xfId="0" applyFill="true" applyFont="true">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="508" fillId="876" borderId="0" xfId="0" applyFill="true" applyFont="true">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
